--- a/output/2022-02-14 15-7200.xlsx
+++ b/output/2022-02-14 15-7200.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (PMX)\Personal Work\Python\ISS-Tracking\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB33DA0D-E507-4F7D-857E-B0FA4FC37DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +102,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +188,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +240,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,14 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,306 +453,306 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>44606.22659722222</v>
+        <v>44606.226597222223</v>
       </c>
       <c r="B2">
-        <v>46.7467</v>
+        <v>46.746699999999997</v>
       </c>
       <c r="C2">
-        <v>57.0509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>57.050899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>44606.22678240741</v>
+        <v>44606.226782407408</v>
       </c>
       <c r="B3">
-        <v>47.1776</v>
+        <v>47.177599999999998</v>
       </c>
       <c r="C3">
-        <v>58.3665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>58.366500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>44606.22696759259</v>
+        <v>44606.226967592593</v>
       </c>
       <c r="B4">
-        <v>47.5789</v>
+        <v>47.578899999999997</v>
       </c>
       <c r="C4">
-        <v>59.6621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>59.662100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>44606.2271412037</v>
+        <v>44606.227141203701</v>
       </c>
       <c r="B5">
-        <v>47.9638</v>
+        <v>47.963799999999999</v>
       </c>
       <c r="C5">
-        <v>60.9784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>60.978400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>44606.22732638889</v>
+        <v>44606.227326388893</v>
       </c>
       <c r="B6">
-        <v>48.332</v>
+        <v>48.332000000000001</v>
       </c>
       <c r="C6">
-        <v>62.3151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>62.315100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>44606.22751157408</v>
+        <v>44606.227511574078</v>
       </c>
       <c r="B7">
-        <v>48.6939</v>
+        <v>48.693899999999999</v>
       </c>
       <c r="C7">
-        <v>63.7158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>63.715800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>44606.22768518519</v>
+        <v>44606.227685185193</v>
       </c>
       <c r="B8">
-        <v>49.0264</v>
+        <v>49.026400000000002</v>
       </c>
       <c r="C8">
-        <v>65.0924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>65.092399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>44606.22787037037</v>
+        <v>44606.227870370371</v>
       </c>
       <c r="B9">
-        <v>49.3407</v>
+        <v>49.340699999999998</v>
       </c>
       <c r="C9">
         <v>66.488</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>44606.22804398148</v>
+        <v>44606.228043981479</v>
       </c>
       <c r="B10">
-        <v>49.6364</v>
+        <v>49.636400000000002</v>
       </c>
       <c r="C10">
-        <v>67.90170000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>67.901700000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>44606.22822916666</v>
+        <v>44606.228229166663</v>
       </c>
       <c r="B11">
-        <v>49.9216</v>
+        <v>49.921599999999998</v>
       </c>
       <c r="C11">
-        <v>69.37949999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>69.379499999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>44606.22841435186</v>
+        <v>44606.228414351863</v>
       </c>
       <c r="B12">
-        <v>50.1781</v>
+        <v>50.178100000000001</v>
       </c>
       <c r="C12">
-        <v>70.828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>70.828000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44606.22859953704</v>
       </c>
       <c r="B13">
-        <v>50.4147</v>
+        <v>50.414700000000003</v>
       </c>
       <c r="C13">
-        <v>72.2923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>72.292299999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>44606.22877314815</v>
+        <v>44606.228773148148</v>
       </c>
       <c r="B14">
         <v>50.631</v>
       </c>
       <c r="C14">
-        <v>73.77119999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>73.771199999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>44606.22895833333</v>
+        <v>44606.228958333333</v>
       </c>
       <c r="B15">
-        <v>50.8267</v>
+        <v>50.826700000000002</v>
       </c>
       <c r="C15">
         <v>75.2637</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>44606.22914351852</v>
+        <v>44606.229143518518</v>
       </c>
       <c r="B16">
-        <v>51.0068</v>
+        <v>51.006799999999998</v>
       </c>
       <c r="C16">
-        <v>76.8175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>76.817499999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>44606.22931712963</v>
+        <v>44606.229317129633</v>
       </c>
       <c r="B17">
-        <v>51.1597</v>
+        <v>51.159700000000001</v>
       </c>
       <c r="C17">
-        <v>78.3342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>78.334199999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>44606.22950231482</v>
+        <v>44606.229502314818</v>
       </c>
       <c r="B18">
         <v>51.2911</v>
       </c>
       <c r="C18">
-        <v>79.8605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>79.860500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>44606.22967592593</v>
+        <v>44606.229675925933</v>
       </c>
       <c r="B19">
         <v>51.4009</v>
       </c>
       <c r="C19">
-        <v>81.39530000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>81.395300000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>44606.22986111111</v>
+        <v>44606.229861111111</v>
       </c>
       <c r="B20">
-        <v>51.4887</v>
+        <v>51.488700000000001</v>
       </c>
       <c r="C20">
-        <v>82.9371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>82.937100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>44606.2300462963</v>
+        <v>44606.230046296303</v>
       </c>
       <c r="B21">
-        <v>51.5562</v>
+        <v>51.556199999999997</v>
       </c>
       <c r="C21">
-        <v>84.53449999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>84.534499999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>44606.2302199074</v>
+        <v>44606.230219907397</v>
       </c>
       <c r="B22">
         <v>51.5991</v>
       </c>
       <c r="C22">
-        <v>86.0856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>86.085599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>44606.2304050926</v>
+        <v>44606.230405092603</v>
       </c>
       <c r="B23">
-        <v>51.6197</v>
+        <v>51.619700000000002</v>
       </c>
       <c r="C23">
-        <v>87.639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>87.638999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>44606.2305787037</v>
+        <v>44606.230578703697</v>
       </c>
       <c r="B24">
-        <v>51.6181</v>
+        <v>51.618099999999998</v>
       </c>
       <c r="C24">
-        <v>89.19329999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>89.193299999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>44606.23076388889</v>
+        <v>44606.230763888889</v>
       </c>
       <c r="B25">
-        <v>51.593</v>
+        <v>51.593000000000004</v>
       </c>
       <c r="C25">
-        <v>90.797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>90.796999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>44606.23094907407</v>
+        <v>44606.230949074074</v>
       </c>
       <c r="B26">
-        <v>51.5461</v>
+        <v>51.546100000000003</v>
       </c>
       <c r="C26">
-        <v>92.3477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>92.347700000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>44606.23112268518</v>
+        <v>44606.231122685182</v>
       </c>
       <c r="B27">
-        <v>51.477</v>
+        <v>51.476999999999997</v>
       </c>
       <c r="C27">
-        <v>93.8944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>93.894400000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>44606.23130787037</v>
+        <v>44606.231307870366</v>
       </c>
       <c r="B28">
-        <v>51.386</v>
+        <v>51.386000000000003</v>
       </c>
       <c r="C28">
-        <v>95.43519999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>95.435199999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>44606.23148148148</v>
+        <v>44606.231481481482</v>
       </c>
       <c r="B29">
         <v>51.2729</v>
@@ -709,86 +761,86 @@
         <v>96.9696</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>44606.23166666667</v>
+        <v>44606.231666666667</v>
       </c>
       <c r="B30">
-        <v>51.1383</v>
+        <v>51.138300000000001</v>
       </c>
       <c r="C30">
-        <v>98.495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>98.495000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>44606.23185185185</v>
+        <v>44606.231851851851</v>
       </c>
       <c r="B31">
-        <v>50.9768</v>
+        <v>50.976799999999997</v>
       </c>
       <c r="C31">
         <v>100.059</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>44606.23203703704</v>
+        <v>44606.232037037043</v>
       </c>
       <c r="B32">
         <v>50.7988</v>
       </c>
       <c r="C32">
-        <v>101.5627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>101.56270000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>44606.23221064815</v>
+        <v>44606.232210648152</v>
       </c>
       <c r="B33">
-        <v>50.5999</v>
+        <v>50.599899999999998</v>
       </c>
       <c r="C33">
         <v>103.0538</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>44606.23239583334</v>
+        <v>44606.232395833344</v>
       </c>
       <c r="B34">
-        <v>50.3804</v>
+        <v>50.380400000000002</v>
       </c>
       <c r="C34">
-        <v>104.531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>104.53100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>44606.23258101852</v>
+        <v>44606.232581018521</v>
       </c>
       <c r="B35">
         <v>50.1327</v>
       </c>
       <c r="C35">
-        <v>106.0404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>106.04040000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>44606.23275462963</v>
+        <v>44606.232754629629</v>
       </c>
       <c r="B36">
-        <v>49.8725</v>
+        <v>49.872500000000002</v>
       </c>
       <c r="C36">
         <v>107.4864</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>44606.23293981481</v>
+        <v>44606.232939814807</v>
       </c>
       <c r="B37">
         <v>49.5929</v>
@@ -797,9 +849,9 @@
         <v>108.9157</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>44606.23311342593</v>
+        <v>44606.233113425929</v>
       </c>
       <c r="B38">
         <v>49.2943</v>
@@ -808,9 +860,9 @@
         <v>110.3272</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>44606.23329861111</v>
+        <v>44606.233298611107</v>
       </c>
       <c r="B39">
         <v>48.9771</v>
@@ -819,53 +871,53 @@
         <v>111.7205</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>44606.2334837963</v>
+        <v>44606.233483796299</v>
       </c>
       <c r="B40">
-        <v>48.6306</v>
+        <v>48.630600000000001</v>
       </c>
       <c r="C40">
         <v>113.1388</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>44606.23365740741</v>
+        <v>44606.233657407407</v>
       </c>
       <c r="B41">
-        <v>48.2769</v>
+        <v>48.276899999999998</v>
       </c>
       <c r="C41">
-        <v>114.4929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>114.49290000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>44606.23384259259</v>
+        <v>44606.233842592592</v>
       </c>
       <c r="B42">
-        <v>47.906</v>
+        <v>47.905999999999999</v>
       </c>
       <c r="C42">
         <v>115.8271</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>44606.23401620371</v>
+        <v>44606.234016203707</v>
       </c>
       <c r="B43">
-        <v>47.5183</v>
+        <v>47.518300000000004</v>
       </c>
       <c r="C43">
         <v>117.1409</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>44606.23420138889</v>
+        <v>44606.234201388892</v>
       </c>
       <c r="B44">
         <v>47.1143</v>
@@ -874,51 +926,51 @@
         <v>118.4341</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>44606.23438657408</v>
+        <v>44606.234386574077</v>
       </c>
       <c r="B45">
-        <v>46.6806</v>
+        <v>46.680599999999998</v>
       </c>
       <c r="C45">
         <v>119.7473</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>44606.23456018518</v>
+        <v>44606.234560185178</v>
       </c>
       <c r="B46">
-        <v>46.2451</v>
+        <v>46.245100000000001</v>
       </c>
       <c r="C46">
-        <v>120.9976</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>120.99760000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44606.23474537037</v>
       </c>
       <c r="B47">
-        <v>45.7946</v>
+        <v>45.794600000000003</v>
       </c>
       <c r="C47">
-        <v>122.2271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>122.22709999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>44606.23493055555</v>
+        <v>44606.234930555547</v>
       </c>
       <c r="B48">
-        <v>45.3296</v>
+        <v>45.329599999999999</v>
       </c>
       <c r="C48">
         <v>123.4355</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44606.23510416667</v>
       </c>
@@ -929,20 +981,20 @@
         <v>124.6228</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>44606.23528935185</v>
+        <v>44606.235289351847</v>
       </c>
       <c r="B50">
-        <v>44.3424</v>
+        <v>44.342399999999998</v>
       </c>
       <c r="C50">
         <v>125.8265</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>44606.23547453704</v>
+        <v>44606.235474537039</v>
       </c>
       <c r="B51">
         <v>43.8367</v>
@@ -951,284 +1003,284 @@
         <v>126.9712</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>44606.23564814815</v>
+        <v>44606.235648148147</v>
       </c>
       <c r="B52">
-        <v>43.3184</v>
+        <v>43.318399999999997</v>
       </c>
       <c r="C52">
-        <v>128.0955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>128.09549999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>44606.23583333333</v>
+        <v>44606.235833333332</v>
       </c>
       <c r="B53">
-        <v>42.788</v>
+        <v>42.787999999999997</v>
       </c>
       <c r="C53">
         <v>129.1994</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>44606.23600694445</v>
+        <v>44606.236006944448</v>
       </c>
       <c r="B54">
-        <v>42.2459</v>
+        <v>42.245899999999999</v>
       </c>
       <c r="C54">
-        <v>130.2832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>130.28319999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>44606.23619212963</v>
+        <v>44606.236192129632</v>
       </c>
       <c r="B55">
-        <v>41.6745</v>
+        <v>41.674500000000002</v>
       </c>
       <c r="C55">
-        <v>131.3812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>131.38120000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>44606.23637731482</v>
+        <v>44606.236377314817</v>
       </c>
       <c r="B56">
-        <v>41.1099</v>
+        <v>41.109900000000003</v>
       </c>
       <c r="C56">
-        <v>132.4251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>132.42509999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>44606.23655092593</v>
+        <v>44606.236550925933</v>
       </c>
       <c r="B57">
         <v>40.5349</v>
       </c>
       <c r="C57">
-        <v>133.4498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>133.44980000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44606.23673611111</v>
       </c>
       <c r="B58">
-        <v>39.9498</v>
+        <v>39.949800000000003</v>
       </c>
       <c r="C58">
-        <v>134.4558</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>134.45580000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>44606.23690972223</v>
+        <v>44606.236909722233</v>
       </c>
       <c r="B59">
-        <v>39.355</v>
+        <v>39.354999999999997</v>
       </c>
       <c r="C59">
         <v>135.4435</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44606.23709490741</v>
       </c>
       <c r="B60">
-        <v>38.7313</v>
+        <v>38.731299999999997</v>
       </c>
       <c r="C60">
         <v>136.4442</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>44606.2372800926</v>
+        <v>44606.237280092602</v>
       </c>
       <c r="B61">
-        <v>38.1179</v>
+        <v>38.117899999999999</v>
       </c>
       <c r="C61">
-        <v>137.3959</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>137.39590000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>44606.2374537037</v>
+        <v>44606.237453703703</v>
       </c>
       <c r="B62">
-        <v>37.4958</v>
+        <v>37.495800000000003</v>
       </c>
       <c r="C62">
         <v>138.3305</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>44606.23763888889</v>
+        <v>44606.237638888888</v>
       </c>
       <c r="B63">
-        <v>36.8655</v>
+        <v>36.865499999999997</v>
       </c>
       <c r="C63">
-        <v>139.2486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>139.24860000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>44606.2378125</v>
+        <v>44606.237812500003</v>
       </c>
       <c r="B64">
         <v>36.2273</v>
       </c>
       <c r="C64">
-        <v>140.1502</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>140.15020000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>44606.23799768519</v>
+        <v>44606.237997685188</v>
       </c>
       <c r="B65">
-        <v>35.5604</v>
+        <v>35.560400000000001</v>
       </c>
       <c r="C65">
-        <v>141.0646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>141.06460000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>44606.23818287037</v>
+        <v>44606.238182870373</v>
       </c>
       <c r="B66">
-        <v>34.9068</v>
+        <v>34.906799999999997</v>
       </c>
       <c r="C66">
         <v>141.9348</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>44606.23836805556</v>
+        <v>44606.238368055558</v>
       </c>
       <c r="B67">
-        <v>34.2462</v>
+        <v>34.246200000000002</v>
       </c>
       <c r="C67">
         <v>142.7901</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>44606.23854166667</v>
+        <v>44606.238541666673</v>
       </c>
       <c r="B68">
-        <v>33.5789</v>
+        <v>33.578899999999997</v>
       </c>
       <c r="C68">
         <v>143.631</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>44606.23872685185</v>
+        <v>44606.238726851851</v>
       </c>
       <c r="B69">
-        <v>32.9051</v>
+        <v>32.905099999999997</v>
       </c>
       <c r="C69">
-        <v>144.4578</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>144.45779999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>44606.23891203704</v>
+        <v>44606.238912037043</v>
       </c>
       <c r="B70">
-        <v>32.203</v>
+        <v>32.203000000000003</v>
       </c>
       <c r="C70">
         <v>145.2971</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>44606.23908564815</v>
+        <v>44606.239085648151</v>
       </c>
       <c r="B71">
         <v>31.5167</v>
       </c>
       <c r="C71">
-        <v>146.0969</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>146.09690000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>44606.23927083334</v>
+        <v>44606.239270833343</v>
       </c>
       <c r="B72">
         <v>30.8248</v>
       </c>
       <c r="C72">
-        <v>146.884</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>146.88399999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>44606.23944444444</v>
+        <v>44606.239444444444</v>
       </c>
       <c r="B73">
-        <v>30.1273</v>
+        <v>30.127300000000002</v>
       </c>
       <c r="C73">
-        <v>147.6588</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>147.65880000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>44606.23962962963</v>
+        <v>44606.239629629628</v>
       </c>
       <c r="B74">
-        <v>29.4017</v>
+        <v>29.401700000000002</v>
       </c>
       <c r="C74">
-        <v>148.4463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>148.44630000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>44606.23981481481</v>
+        <v>44606.239814814813</v>
       </c>
       <c r="B75">
         <v>28.6938</v>
       </c>
       <c r="C75">
-        <v>149.1974</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>149.19739999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>44606.23998842593</v>
+        <v>44606.239988425928</v>
       </c>
       <c r="B76">
-        <v>27.9811</v>
+        <v>27.981100000000001</v>
       </c>
       <c r="C76">
         <v>149.9376</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>44606.24017361111</v>
+        <v>44606.240173611113</v>
       </c>
       <c r="B77">
         <v>27.2637</v>
@@ -1237,163 +1289,163 @@
         <v>150.667</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>44606.24034722222</v>
+        <v>44606.240347222221</v>
       </c>
       <c r="B78">
-        <v>26.5419</v>
+        <v>26.541899999999998</v>
       </c>
       <c r="C78">
-        <v>151.3863</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>151.38630000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>44606.24053240741</v>
+        <v>44606.240532407413</v>
       </c>
       <c r="B79">
-        <v>25.7924</v>
+        <v>25.792400000000001</v>
       </c>
       <c r="C79">
         <v>152.1183</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>44606.24071759259</v>
+        <v>44606.240717592591</v>
       </c>
       <c r="B80">
         <v>25.0623</v>
       </c>
       <c r="C80">
-        <v>152.8179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>152.81790000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>44606.24089120371</v>
+        <v>44606.240891203714</v>
       </c>
       <c r="B81">
-        <v>24.3281</v>
+        <v>24.328099999999999</v>
       </c>
       <c r="C81">
         <v>153.5085</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <v>44606.24107638889</v>
+        <v>44606.241076388891</v>
       </c>
       <c r="B82">
-        <v>23.5904</v>
+        <v>23.590399999999999</v>
       </c>
       <c r="C82">
         <v>154.1902</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>44606.24125</v>
+        <v>44606.241249999999</v>
       </c>
       <c r="B83">
         <v>22.8492</v>
       </c>
       <c r="C83">
-        <v>154.8634</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>154.86340000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>44606.24143518518</v>
+        <v>44606.241435185177</v>
       </c>
       <c r="B84">
-        <v>22.0804</v>
+        <v>22.080400000000001</v>
       </c>
       <c r="C84">
-        <v>155.5501</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>155.55009999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>44606.24162037037</v>
+        <v>44606.241620370369</v>
       </c>
       <c r="B85">
         <v>21.3324</v>
       </c>
       <c r="C85">
-        <v>156.2075</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>156.20750000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>44606.24180555555</v>
+        <v>44606.241805555554</v>
       </c>
       <c r="B86">
-        <v>20.5815</v>
+        <v>20.581499999999998</v>
       </c>
       <c r="C86">
-        <v>156.8575</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>156.85749999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>44606.24197916667</v>
+        <v>44606.241979166669</v>
       </c>
       <c r="B87">
         <v>19.8277</v>
       </c>
       <c r="C87">
-        <v>157.5003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>157.50030000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>44606.24216435185</v>
+        <v>44606.242164351846</v>
       </c>
       <c r="B88">
-        <v>19.0712</v>
+        <v>19.071200000000001</v>
       </c>
       <c r="C88">
-        <v>158.1364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>158.13640000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>44606.24234953704</v>
+        <v>44606.242349537039</v>
       </c>
       <c r="B89">
-        <v>18.2875</v>
+        <v>18.287500000000001</v>
       </c>
       <c r="C89">
-        <v>158.7864</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>158.78639999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>44606.24252314815</v>
+        <v>44606.242523148147</v>
       </c>
       <c r="B90">
-        <v>17.5257</v>
+        <v>17.525700000000001</v>
       </c>
       <c r="C90">
-        <v>159.4099</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>159.40989999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>44606.24270833333</v>
+        <v>44606.242708333331</v>
       </c>
       <c r="B91">
-        <v>16.7616</v>
+        <v>16.761600000000001</v>
       </c>
       <c r="C91">
         <v>160.0275</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>44606.24288194445</v>
+        <v>44606.242881944447</v>
       </c>
       <c r="B92">
         <v>15.9954</v>
@@ -1402,9 +1454,9 @@
         <v>160.6397</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>44606.24306712963</v>
+        <v>44606.243067129632</v>
       </c>
       <c r="B93">
         <v>15.2271</v>
@@ -1413,31 +1465,31 @@
         <v>161.2466</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>44606.24325231482</v>
+        <v>44606.243252314824</v>
       </c>
       <c r="B94">
-        <v>14.4319</v>
+        <v>14.431900000000001</v>
       </c>
       <c r="C94">
-        <v>161.868</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>161.86799999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>44606.24342592592</v>
+        <v>44606.243425925917</v>
       </c>
       <c r="B95">
-        <v>13.6597</v>
+        <v>13.659700000000001</v>
       </c>
       <c r="C95">
-        <v>162.4652</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>162.46520000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>44606.24361111111</v>
+        <v>44606.243611111109</v>
       </c>
       <c r="B96">
         <v>12.8858</v>
@@ -1446,130 +1498,130 @@
         <v>163.0581</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>44606.24378472222</v>
+        <v>44606.243784722217</v>
       </c>
       <c r="B97">
-        <v>12.1102</v>
+        <v>12.110200000000001</v>
       </c>
       <c r="C97">
-        <v>163.6469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>163.64689999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>44606.24396990741</v>
+        <v>44606.243969907409</v>
       </c>
       <c r="B98">
         <v>11.3081</v>
       </c>
       <c r="C98">
-        <v>164.2507</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>164.25069999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>44606.24415509259</v>
+        <v>44606.244155092587</v>
       </c>
       <c r="B99">
         <v>10.5297</v>
       </c>
       <c r="C99">
-        <v>164.832</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>164.83199999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>44606.2443287037</v>
+        <v>44606.244328703702</v>
       </c>
       <c r="B100">
         <v>9.75</v>
       </c>
       <c r="C100">
-        <v>165.4099</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>165.40989999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>44606.24451388889</v>
+        <v>44606.244513888887</v>
       </c>
       <c r="B101">
-        <v>8.969099999999999</v>
+        <v>8.9690999999999992</v>
       </c>
       <c r="C101">
-        <v>165.9849</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>165.98490000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>44606.24469907407</v>
+        <v>44606.244699074072</v>
       </c>
       <c r="B102">
-        <v>8.161799999999999</v>
+        <v>8.1617999999999995</v>
       </c>
       <c r="C102">
-        <v>166.5756</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>166.57560000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>44606.24488425926</v>
+        <v>44606.244884259257</v>
       </c>
       <c r="B103">
-        <v>7.379</v>
+        <v>7.3789999999999996</v>
       </c>
       <c r="C103">
-        <v>167.1451</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>167.14510000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>44606.24505787037</v>
+        <v>44606.245057870372</v>
       </c>
       <c r="B104">
-        <v>6.5952</v>
+        <v>6.5952000000000002</v>
       </c>
       <c r="C104">
         <v>167.7124</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>44606.24524305556</v>
+        <v>44606.245243055557</v>
       </c>
       <c r="B105">
-        <v>5.8105</v>
+        <v>5.8105000000000002</v>
       </c>
       <c r="C105">
-        <v>168.2778</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>168.27780000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>44606.24542824074</v>
+        <v>44606.245428240742</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106">
-        <v>168.8594</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>168.85939999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44606.24560185185</v>
       </c>
       <c r="B107">
-        <v>4.2141</v>
+        <v>4.2141000000000002</v>
       </c>
       <c r="C107">
-        <v>169.4214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>169.42140000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>44606.24578703703</v>
+        <v>44606.245787037027</v>
       </c>
       <c r="B108">
         <v>3.4278</v>
@@ -1578,7 +1630,7 @@
         <v>169.982</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44606.24596064815</v>
       </c>
@@ -1586,177 +1638,177 @@
         <v>2.6412</v>
       </c>
       <c r="C109">
-        <v>170.5415</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>170.54150000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>44606.24614583333</v>
+        <v>44606.246145833327</v>
       </c>
       <c r="B110">
-        <v>1.8543</v>
+        <v>1.8543000000000001</v>
       </c>
       <c r="C110">
         <v>171.1003</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>44606.24633101852</v>
+        <v>44606.246331018519</v>
       </c>
       <c r="B111">
-        <v>1.0417</v>
+        <v>1.0417000000000001</v>
       </c>
       <c r="C111">
         <v>171.6764</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>44606.24650462963</v>
+        <v>44606.246504629627</v>
       </c>
       <c r="B112">
         <v>0.2545</v>
       </c>
       <c r="C112">
-        <v>172.2342</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>172.23419999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>44606.24668981481</v>
+        <v>44606.246689814812</v>
       </c>
       <c r="B113">
-        <v>-0.5328000000000001</v>
+        <v>-0.53280000000000005</v>
       </c>
       <c r="C113">
         <v>172.792</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>44606.24686342593</v>
+        <v>44606.246863425928</v>
       </c>
       <c r="B114">
         <v>-1.32</v>
       </c>
       <c r="C114">
-        <v>173.3499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>173.34989999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>44606.24704861111</v>
+        <v>44606.247048611112</v>
       </c>
       <c r="B115">
-        <v>-2.1068</v>
+        <v>-2.1067999999999998</v>
       </c>
       <c r="C115">
-        <v>173.9081</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>173.90809999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
-        <v>44606.2472337963</v>
+        <v>44606.247233796297</v>
       </c>
       <c r="B116">
-        <v>-2.9189</v>
+        <v>-2.9188999999999998</v>
       </c>
       <c r="C116">
-        <v>174.4849</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>174.48490000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <v>44606.24740740741</v>
+        <v>44606.247407407413</v>
       </c>
       <c r="B117">
         <v>-3.7052</v>
       </c>
       <c r="C117">
-        <v>175.0447</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>175.04470000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44606.24759259259</v>
       </c>
       <c r="B118">
-        <v>-4.491</v>
+        <v>-4.4909999999999997</v>
       </c>
       <c r="C118">
         <v>175.6054</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>44606.24776620371</v>
+        <v>44606.247766203713</v>
       </c>
       <c r="B119">
-        <v>-5.2762</v>
+        <v>-5.2762000000000002</v>
       </c>
       <c r="C119">
-        <v>176.1675</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>176.16749999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44606.24795138889</v>
       </c>
       <c r="B120">
-        <v>-6.0859</v>
+        <v>-6.0858999999999996</v>
       </c>
       <c r="C120">
-        <v>176.7493</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>176.74930000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <v>44606.24813657408</v>
+        <v>44606.248136574082</v>
       </c>
       <c r="B121">
-        <v>-6.8696</v>
+        <v>-6.8696000000000002</v>
       </c>
       <c r="C121">
-        <v>177.3147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>177.31469999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44606.24832175926</v>
       </c>
       <c r="B122">
-        <v>-7.6524</v>
+        <v>-7.6524000000000001</v>
       </c>
       <c r="C122">
-        <v>177.8823</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>177.88229999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
-        <v>44606.24849537037</v>
+        <v>44606.248495370368</v>
       </c>
       <c r="B123">
-        <v>-8.4344</v>
+        <v>-8.4344000000000001</v>
       </c>
       <c r="C123">
         <v>178.4522</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
-        <v>44606.24868055555</v>
+        <v>44606.248680555553</v>
       </c>
       <c r="B124">
-        <v>-9.2151</v>
+        <v>-9.2150999999999996</v>
       </c>
       <c r="C124">
-        <v>179.0245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>179.02449999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
-        <v>44606.24886574074</v>
+        <v>44606.248865740738</v>
       </c>
       <c r="B125">
         <v>-10.0199</v>
@@ -1765,42 +1817,42 @@
         <v>179.6183</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
-        <v>44606.24903935185</v>
+        <v>44606.249039351853</v>
       </c>
       <c r="B126">
-        <v>-10.7983</v>
+        <v>-10.798299999999999</v>
       </c>
       <c r="C126">
-        <v>-179.8034</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>-179.80340000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <v>44606.24922453704</v>
+        <v>44606.249224537038</v>
       </c>
       <c r="B127">
-        <v>-11.5752</v>
+        <v>-11.575200000000001</v>
       </c>
       <c r="C127">
         <v>-179.2218</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
-        <v>44606.24939814815</v>
+        <v>44606.249398148153</v>
       </c>
       <c r="B128">
         <v>-12.3507</v>
       </c>
       <c r="C128">
-        <v>-178.6365</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>-178.63650000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
-        <v>44606.24958333333</v>
+        <v>44606.249583333331</v>
       </c>
       <c r="B129">
         <v>-13.1495</v>
@@ -1809,31 +1861,31 @@
         <v>-178.0284</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
-        <v>44606.24976851852</v>
+        <v>44606.249768518523</v>
       </c>
       <c r="B130">
         <v>-13.9216</v>
       </c>
       <c r="C130">
-        <v>-177.4351</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>-177.43510000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
-        <v>44606.24994212963</v>
+        <v>44606.249942129631</v>
       </c>
       <c r="B131">
         <v>-14.6919</v>
       </c>
       <c r="C131">
-        <v>-176.8375</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>-176.83750000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
-        <v>44606.25012731482</v>
+        <v>44606.250127314823</v>
       </c>
       <c r="B132">
         <v>-15.4618</v>
@@ -1842,64 +1894,64 @@
         <v>-176.2338</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
-        <v>44606.25030092592</v>
+        <v>44606.250300925924</v>
       </c>
       <c r="B133">
-        <v>-16.2281</v>
+        <v>-16.228100000000001</v>
       </c>
       <c r="C133">
         <v>-175.6266</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
-        <v>44606.25048611111</v>
+        <v>44606.250486111108</v>
       </c>
       <c r="B134">
         <v>-17.0169</v>
       </c>
       <c r="C134">
-        <v>-174.9942</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>-174.99420000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
-        <v>44606.25067129629</v>
+        <v>44606.250671296293</v>
       </c>
       <c r="B135">
-        <v>-17.7786</v>
+        <v>-17.778600000000001</v>
       </c>
       <c r="C135">
-        <v>-174.3761</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>-174.37610000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
-        <v>44606.25084490741</v>
+        <v>44606.250844907408</v>
       </c>
       <c r="B136">
         <v>-18.5379</v>
       </c>
       <c r="C136">
-        <v>-173.7521</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>-173.75210000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
-        <v>44606.25103009259</v>
+        <v>44606.251030092593</v>
       </c>
       <c r="B137">
-        <v>-19.2949</v>
+        <v>-19.294899999999998</v>
       </c>
       <c r="C137">
-        <v>-173.1218</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>-173.12180000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
-        <v>44606.2512037037</v>
+        <v>44606.251203703701</v>
       </c>
       <c r="B138">
         <v>-20.0489</v>
@@ -1908,9 +1960,9 @@
         <v>-172.4853</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
-        <v>44606.25140046296</v>
+        <v>44606.251400462963</v>
       </c>
       <c r="B139">
         <v>-20.8245</v>
@@ -1919,53 +1971,53 @@
         <v>-171.8211</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
-        <v>44606.25157407407</v>
+        <v>44606.251574074071</v>
       </c>
       <c r="B140">
-        <v>-21.5727</v>
+        <v>-21.572700000000001</v>
       </c>
       <c r="C140">
-        <v>-171.1706</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>-171.17060000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
-        <v>44606.25175925926</v>
+        <v>44606.251759259263</v>
       </c>
       <c r="B141">
-        <v>-22.3178</v>
+        <v>-22.317799999999998</v>
       </c>
       <c r="C141">
-        <v>-170.5125</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>-170.51249999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
-        <v>44606.25193287037</v>
+        <v>44606.251932870371</v>
       </c>
       <c r="B142">
         <v>-23.0596</v>
       </c>
       <c r="C142">
-        <v>-169.8469</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>-169.84690000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
-        <v>44606.25211805556</v>
+        <v>44606.252118055563</v>
       </c>
       <c r="B143">
-        <v>-23.7979</v>
+        <v>-23.797899999999998</v>
       </c>
       <c r="C143">
-        <v>-169.1732</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>-169.17320000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
-        <v>44606.25230324074</v>
+        <v>44606.252303240741</v>
       </c>
       <c r="B144">
         <v>-24.5562</v>
@@ -1974,64 +2026,64 @@
         <v>-168.4691</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
-        <v>44606.25247685185</v>
+        <v>44606.252476851849</v>
       </c>
       <c r="B145">
-        <v>-25.287</v>
+        <v>-25.286999999999999</v>
       </c>
       <c r="C145">
-        <v>-167.778</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>-167.77799999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
-        <v>44606.25266203703</v>
+        <v>44606.252662037034</v>
       </c>
       <c r="B146">
         <v>-26.0139</v>
       </c>
       <c r="C146">
-        <v>-167.0777</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>-167.07769999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
-        <v>44606.25284722223</v>
+        <v>44606.252847222233</v>
       </c>
       <c r="B147">
-        <v>-26.7831</v>
+        <v>-26.783100000000001</v>
       </c>
       <c r="C147">
         <v>-166.3219</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
-        <v>44606.25303240741</v>
+        <v>44606.253032407411</v>
       </c>
       <c r="B148">
-        <v>-27.5012</v>
+        <v>-27.501200000000001</v>
       </c>
       <c r="C148">
         <v>-165.6018</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
-        <v>44606.25320601852</v>
+        <v>44606.253206018519</v>
       </c>
       <c r="B149">
         <v>-28.2149</v>
       </c>
       <c r="C149">
-        <v>-164.8713</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>-164.87129999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
-        <v>44606.2533912037</v>
+        <v>44606.253391203703</v>
       </c>
       <c r="B150">
         <v>-28.9465</v>
@@ -2040,262 +2092,262 @@
         <v>-164.1062</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
-        <v>44606.25357638889</v>
+        <v>44606.253576388888</v>
       </c>
       <c r="B151">
-        <v>-29.6505</v>
+        <v>-29.650500000000001</v>
       </c>
       <c r="C151">
         <v>-163.3536</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
-        <v>44606.25375</v>
+        <v>44606.253750000003</v>
       </c>
       <c r="B152">
-        <v>-30.3493</v>
+        <v>-30.349299999999999</v>
       </c>
       <c r="C152">
-        <v>-162.5897</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>-162.58969999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
-        <v>44606.25393518519</v>
+        <v>44606.253935185188</v>
       </c>
       <c r="B153">
         <v>-31.0426</v>
       </c>
       <c r="C153">
-        <v>-161.814</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>-161.81399999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
-        <v>44606.2541087963</v>
+        <v>44606.254108796304</v>
       </c>
       <c r="B154">
-        <v>-31.7304</v>
+        <v>-31.730399999999999</v>
       </c>
       <c r="C154">
-        <v>-161.026</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>-161.02600000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
-        <v>44606.25429398148</v>
+        <v>44606.254293981481</v>
       </c>
       <c r="B155">
-        <v>-32.4344</v>
+        <v>-32.434399999999997</v>
       </c>
       <c r="C155">
-        <v>-160.1992</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>-160.19919999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
-        <v>44606.25447916667</v>
+        <v>44606.254479166673</v>
       </c>
       <c r="B156">
-        <v>-33.1101</v>
+        <v>-33.110100000000003</v>
       </c>
       <c r="C156">
-        <v>-159.385</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>-159.38499999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
-        <v>44606.25466435185</v>
+        <v>44606.254664351851</v>
       </c>
       <c r="B157">
-        <v>-33.7796</v>
+        <v>-33.779600000000002</v>
       </c>
       <c r="C157">
-        <v>-158.5572</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>-158.55719999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
-        <v>44606.25483796297</v>
+        <v>44606.254837962973</v>
       </c>
       <c r="B158">
-        <v>-34.4424</v>
+        <v>-34.442399999999999</v>
       </c>
       <c r="C158">
-        <v>-157.7156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>-157.71559999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
-        <v>44606.25502314815</v>
+        <v>44606.255023148151</v>
       </c>
       <c r="B159">
-        <v>-35.0985</v>
+        <v>-35.098500000000001</v>
       </c>
       <c r="C159">
-        <v>-156.8594</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>-156.85939999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
-        <v>44606.25520833334</v>
+        <v>44606.255208333343</v>
       </c>
       <c r="B160">
         <v>-35.7682</v>
       </c>
       <c r="C160">
-        <v>-155.9602</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>-155.96019999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
-        <v>44606.25538194444</v>
+        <v>44606.255381944437</v>
       </c>
       <c r="B161">
-        <v>-36.4095</v>
+        <v>-36.409500000000001</v>
       </c>
       <c r="C161">
-        <v>-155.0734</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>-155.07339999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
-        <v>44606.25556712963</v>
+        <v>44606.255567129629</v>
       </c>
       <c r="B162">
-        <v>-37.043</v>
+        <v>-37.042999999999999</v>
       </c>
       <c r="C162">
-        <v>-154.1709</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>-154.17089999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
-        <v>44606.25574074074</v>
+        <v>44606.255740740737</v>
       </c>
       <c r="B163">
-        <v>-37.6686</v>
+        <v>-37.668599999999998</v>
       </c>
       <c r="C163">
-        <v>-153.2522</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>-153.25219999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
-        <v>44606.25592592593</v>
+        <v>44606.255925925929</v>
       </c>
       <c r="B164">
-        <v>-38.2859</v>
+        <v>-38.285899999999998</v>
       </c>
       <c r="C164">
         <v>-152.3169</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
-        <v>44606.25611111111</v>
+        <v>44606.256111111114</v>
       </c>
       <c r="B165">
-        <v>-38.9138</v>
+        <v>-38.913800000000002</v>
       </c>
       <c r="C165">
         <v>-151.3338</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
-        <v>44606.25628472222</v>
+        <v>44606.256284722222</v>
       </c>
       <c r="B166">
-        <v>-39.513</v>
+        <v>-39.512999999999998</v>
       </c>
       <c r="C166">
-        <v>-150.3637</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>-150.36369999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
-        <v>44606.25646990741</v>
+        <v>44606.256469907406</v>
       </c>
       <c r="B167">
-        <v>-40.1028</v>
+        <v>-40.102800000000002</v>
       </c>
       <c r="C167">
-        <v>-149.3756</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>-149.37559999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
-        <v>44606.25664351852</v>
+        <v>44606.256643518522</v>
       </c>
       <c r="B168">
-        <v>-40.6829</v>
+        <v>-40.682899999999997</v>
       </c>
       <c r="C168">
-        <v>-148.3695</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>-148.36949999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
-        <v>44606.25682870371</v>
+        <v>44606.256828703707</v>
       </c>
       <c r="B169">
-        <v>-41.2529</v>
+        <v>-41.252899999999997</v>
       </c>
       <c r="C169">
-        <v>-147.3446</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>-147.34460000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
-        <v>44606.25701388889</v>
+        <v>44606.257013888891</v>
       </c>
       <c r="B170">
-        <v>-41.8303</v>
+        <v>-41.830300000000001</v>
       </c>
       <c r="C170">
-        <v>-146.2666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>-146.26660000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
-        <v>44606.2571875</v>
+        <v>44606.257187499999</v>
       </c>
       <c r="B171">
-        <v>-42.3785</v>
+        <v>-42.378500000000003</v>
       </c>
       <c r="C171">
         <v>-145.203</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
-        <v>44606.25737268518</v>
+        <v>44606.257372685177</v>
       </c>
       <c r="B172">
-        <v>-42.9154</v>
+        <v>-42.915399999999998</v>
       </c>
       <c r="C172">
-        <v>-144.1196</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>-144.11959999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44606.2575462963</v>
       </c>
       <c r="B173">
-        <v>-43.4406</v>
+        <v>-43.440600000000003</v>
       </c>
       <c r="C173">
         <v>-143.0163</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
-        <v>44606.25773148148</v>
+        <v>44606.257731481477</v>
       </c>
       <c r="B174">
         <v>-43.97</v>
@@ -2304,163 +2356,163 @@
         <v>-141.8561</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
-        <v>44606.25791666667</v>
+        <v>44606.257916666669</v>
       </c>
       <c r="B175">
-        <v>-44.4701</v>
+        <v>-44.470100000000002</v>
       </c>
       <c r="C175">
         <v>-140.7116</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
-        <v>44606.25810185185</v>
+        <v>44606.258101851847</v>
       </c>
       <c r="B176">
-        <v>-44.9571</v>
+        <v>-44.957099999999997</v>
       </c>
       <c r="C176">
-        <v>-139.5464</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>-139.54640000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
-        <v>44606.25827546296</v>
+        <v>44606.258275462962</v>
       </c>
       <c r="B177">
-        <v>-45.4307</v>
+        <v>-45.430700000000002</v>
       </c>
       <c r="C177">
         <v>-138.3605</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
-        <v>44606.25846064815</v>
+        <v>44606.258460648147</v>
       </c>
       <c r="B178">
-        <v>-45.8905</v>
+        <v>-45.890500000000003</v>
       </c>
       <c r="C178">
-        <v>-137.1535</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>-137.15350000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
-        <v>44606.25864583333</v>
+        <v>44606.258645833332</v>
       </c>
       <c r="B179">
-        <v>-46.3499</v>
+        <v>-46.349899999999998</v>
       </c>
       <c r="C179">
         <v>-135.886</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
-        <v>44606.25881944445</v>
+        <v>44606.258819444447</v>
       </c>
       <c r="B180">
-        <v>-46.7799</v>
+        <v>-46.779899999999998</v>
       </c>
       <c r="C180">
         <v>-134.6369</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
-        <v>44606.25900462963</v>
+        <v>44606.259004629632</v>
       </c>
       <c r="B181">
-        <v>-47.1946</v>
+        <v>-47.194600000000001</v>
       </c>
       <c r="C181">
-        <v>-133.367</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>-133.36699999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
-        <v>44606.25918981482</v>
+        <v>44606.259189814817</v>
       </c>
       <c r="B182">
-        <v>-47.6061</v>
+        <v>-47.606099999999998</v>
       </c>
       <c r="C182">
-        <v>-132.0346</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>-132.03460000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
-        <v>44606.25936342592</v>
+        <v>44606.259363425917</v>
       </c>
       <c r="B183">
-        <v>-47.9883</v>
+        <v>-47.988300000000002</v>
       </c>
       <c r="C183">
-        <v>-130.7231</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>-130.72309999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
-        <v>44606.25954861111</v>
+        <v>44606.259548611109</v>
       </c>
       <c r="B184">
-        <v>-48.3537</v>
+        <v>-48.353700000000003</v>
       </c>
       <c r="C184">
         <v>-129.3914</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
-        <v>44606.25972222222</v>
+        <v>44606.259722222218</v>
       </c>
       <c r="B185">
-        <v>-48.702</v>
+        <v>-48.701999999999998</v>
       </c>
       <c r="C185">
         <v>-128.0403</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>44606.25990740741</v>
       </c>
       <c r="B186">
-        <v>-49.043</v>
+        <v>-49.042999999999999</v>
       </c>
       <c r="C186">
         <v>-126.6254</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
-        <v>44606.26009259259</v>
+        <v>44606.260092592587</v>
       </c>
       <c r="B187">
-        <v>-49.355</v>
+        <v>-49.354999999999997</v>
       </c>
       <c r="C187">
-        <v>-125.2356</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>-125.23560000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
-        <v>44606.2602662037</v>
+        <v>44606.260266203702</v>
       </c>
       <c r="B188">
-        <v>-49.6484</v>
+        <v>-49.648400000000002</v>
       </c>
       <c r="C188">
-        <v>-123.8281</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>-123.82810000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
-        <v>44606.26045138889</v>
+        <v>44606.260451388887</v>
       </c>
       <c r="B189">
         <v>-49.9315</v>
@@ -2469,141 +2521,141 @@
         <v>-122.3569</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
-        <v>44606.26063657407</v>
+        <v>44606.260636574072</v>
       </c>
       <c r="B190">
-        <v>-50.1861</v>
+        <v>-50.186100000000003</v>
       </c>
       <c r="C190">
-        <v>-120.915</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>-120.91500000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
-        <v>44606.26081018519</v>
+        <v>44606.260810185187</v>
       </c>
       <c r="B191">
-        <v>-50.421</v>
+        <v>-50.420999999999999</v>
       </c>
       <c r="C191">
-        <v>-119.4578</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>-119.45780000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
-        <v>44606.26099537037</v>
+        <v>44606.260995370372</v>
       </c>
       <c r="B192">
-        <v>-50.6358</v>
+        <v>-50.635800000000003</v>
       </c>
       <c r="C192">
         <v>-117.9859</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
-        <v>44606.26118055556</v>
+        <v>44606.261180555557</v>
       </c>
       <c r="B193">
-        <v>-50.8361</v>
+        <v>-50.836100000000002</v>
       </c>
       <c r="C193">
         <v>-116.4525</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
-        <v>44606.26136574074</v>
+        <v>44606.261365740742</v>
       </c>
       <c r="B194">
         <v>-51.009</v>
       </c>
       <c r="C194">
-        <v>-114.9548</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>-114.95480000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>44606.26153935185</v>
       </c>
       <c r="B195">
-        <v>-51.161</v>
+        <v>-51.161000000000001</v>
       </c>
       <c r="C195">
-        <v>-113.4459</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>-113.44589999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
-        <v>44606.26172453703</v>
+        <v>44606.261724537027</v>
       </c>
       <c r="B196">
-        <v>-51.2917</v>
+        <v>-51.291699999999999</v>
       </c>
       <c r="C196">
         <v>-111.9276</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
-        <v>44606.2619212963</v>
+        <v>44606.261921296304</v>
       </c>
       <c r="B197">
-        <v>-51.4102</v>
+        <v>-51.410200000000003</v>
       </c>
       <c r="C197">
-        <v>-110.2528</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>-110.25279999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
-        <v>44606.2620949074</v>
+        <v>44606.262094907397</v>
       </c>
       <c r="B198">
-        <v>-51.4956</v>
+        <v>-51.495600000000003</v>
       </c>
       <c r="C198">
         <v>-108.7187</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
-        <v>44606.26228009259</v>
+        <v>44606.262280092589</v>
       </c>
       <c r="B199">
-        <v>-51.5609</v>
+        <v>-51.560899999999997</v>
       </c>
       <c r="C199">
         <v>-107.1296</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
-        <v>44606.26246527778</v>
+        <v>44606.262465277781</v>
       </c>
       <c r="B200">
-        <v>-51.6018</v>
+        <v>-51.601799999999997</v>
       </c>
       <c r="C200">
         <v>-105.5865</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
-        <v>44606.26263888889</v>
+        <v>44606.262638888889</v>
       </c>
       <c r="B201">
-        <v>-51.6207</v>
+        <v>-51.620699999999999</v>
       </c>
       <c r="C201">
         <v>-104.0412</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
-        <v>44606.26282407407</v>
+        <v>44606.262824074067</v>
       </c>
       <c r="B202">
         <v>-51.6175</v>
@@ -2612,150 +2664,150 @@
         <v>-102.4954</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
-        <v>44606.26299768518</v>
+        <v>44606.262997685182</v>
       </c>
       <c r="B203">
-        <v>-51.5922</v>
+        <v>-51.592199999999998</v>
       </c>
       <c r="C203">
         <v>-100.9507</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
-        <v>44606.26318287037</v>
+        <v>44606.263182870367</v>
       </c>
       <c r="B204">
-        <v>-51.5431</v>
+        <v>-51.543100000000003</v>
       </c>
       <c r="C204">
-        <v>-99.3588</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>-99.358800000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
-        <v>44606.26336805556</v>
+        <v>44606.263368055559</v>
       </c>
       <c r="B205">
-        <v>-51.4732</v>
+        <v>-51.473199999999999</v>
       </c>
       <c r="C205">
-        <v>-97.8205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>-97.820499999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
-        <v>44606.26354166667</v>
+        <v>44606.263541666667</v>
       </c>
       <c r="B206">
-        <v>-51.3815</v>
+        <v>-51.381500000000003</v>
       </c>
       <c r="C206">
-        <v>-96.28830000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>-96.288300000000007</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
-        <v>44606.26372685185</v>
+        <v>44606.263726851852</v>
       </c>
       <c r="B207">
         <v>-51.2682</v>
       </c>
       <c r="C207">
-        <v>-94.7633</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>-94.763300000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
-        <v>44606.26391203704</v>
+        <v>44606.263912037037</v>
       </c>
       <c r="B208">
-        <v>-51.1288</v>
+        <v>-51.128799999999998</v>
       </c>
       <c r="C208">
-        <v>-93.1981</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>-93.198099999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
-        <v>44606.26408564814</v>
+        <v>44606.264085648138</v>
       </c>
       <c r="B209">
-        <v>-50.9721</v>
+        <v>-50.972099999999998</v>
       </c>
       <c r="C209">
-        <v>-91.6918</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>-91.691800000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
-        <v>44606.26427083334</v>
+        <v>44606.264270833337</v>
       </c>
       <c r="B210">
-        <v>-50.7945</v>
+        <v>-50.794499999999999</v>
       </c>
       <c r="C210">
-        <v>-90.19710000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>-90.197100000000006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
-        <v>44606.26445601852</v>
+        <v>44606.264456018522</v>
       </c>
       <c r="B211">
-        <v>-50.5963</v>
+        <v>-50.596299999999999</v>
       </c>
       <c r="C211">
-        <v>-88.7146</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>-88.714600000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>44606.26462962963</v>
       </c>
       <c r="B212">
-        <v>-50.3777</v>
+        <v>-50.377699999999997</v>
       </c>
       <c r="C212">
-        <v>-87.246</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>-87.245999999999995</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
-        <v>44606.26481481481</v>
+        <v>44606.264814814807</v>
       </c>
       <c r="B213">
-        <v>-50.1311</v>
+        <v>-50.131100000000004</v>
       </c>
       <c r="C213">
         <v>-85.7453</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
-        <v>44606.265</v>
+        <v>44606.264999999999</v>
       </c>
       <c r="B214">
-        <v>-49.8722</v>
+        <v>-49.872199999999999</v>
       </c>
       <c r="C214">
-        <v>-84.3077</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>-84.307699999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
-        <v>44606.26517361111</v>
+        <v>44606.265173611107</v>
       </c>
       <c r="B215">
-        <v>-49.5942</v>
+        <v>-49.594200000000001</v>
       </c>
       <c r="C215">
-        <v>-82.8865</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>-82.886499999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>44606.2653587963</v>
       </c>
@@ -2763,45 +2815,45 @@
         <v>-49.2973</v>
       </c>
       <c r="C216">
-        <v>-81.4829</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>-81.482900000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
-        <v>44606.26554398148</v>
+        <v>44606.265543981477</v>
       </c>
       <c r="B217">
-        <v>-48.9715</v>
+        <v>-48.971499999999999</v>
       </c>
       <c r="C217">
-        <v>-80.0527</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>-80.052700000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
-        <v>44606.26571759259</v>
+        <v>44606.265717592592</v>
       </c>
       <c r="B218">
-        <v>-48.6376</v>
+        <v>-48.637599999999999</v>
       </c>
       <c r="C218">
-        <v>-78.6865</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>-78.686499999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
-        <v>44606.26590277778</v>
+        <v>44606.265902777777</v>
       </c>
       <c r="B219">
-        <v>-48.2862</v>
+        <v>-48.286200000000001</v>
       </c>
       <c r="C219">
-        <v>-77.3396</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>-77.339600000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
-        <v>44606.26607638889</v>
+        <v>44606.266076388893</v>
       </c>
       <c r="B220">
         <v>-47.9178</v>
@@ -2810,306 +2862,306 @@
         <v>-76.0124</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
-        <v>44606.26626157408</v>
+        <v>44606.266261574077</v>
       </c>
       <c r="B221">
-        <v>-47.5327</v>
+        <v>-47.532699999999998</v>
       </c>
       <c r="C221">
-        <v>-74.7052</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>-74.705200000000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
-        <v>44606.26644675926</v>
+        <v>44606.266446759262</v>
       </c>
       <c r="B222">
-        <v>-47.1184</v>
+        <v>-47.118400000000001</v>
       </c>
       <c r="C222">
-        <v>-73.3776</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>-73.377600000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>44606.26662037037</v>
       </c>
       <c r="B223">
-        <v>-46.701</v>
+        <v>-46.701000000000001</v>
       </c>
       <c r="C223">
-        <v>-72.1122</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>-72.112200000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
-        <v>44606.26680555556</v>
+        <v>44606.266805555562</v>
       </c>
       <c r="B224">
         <v>-46.2684</v>
       </c>
       <c r="C224">
-        <v>-70.8677</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>-70.867699999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
-        <v>44606.26697916666</v>
+        <v>44606.266979166663</v>
       </c>
       <c r="B225">
-        <v>-45.8211</v>
+        <v>-45.821100000000001</v>
       </c>
       <c r="C225">
-        <v>-69.64400000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>-69.644000000000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
-        <v>44606.26716435186</v>
+        <v>44606.267164351862</v>
       </c>
       <c r="B226">
-        <v>-45.3595</v>
+        <v>-45.359499999999997</v>
       </c>
       <c r="C226">
-        <v>-68.44110000000001</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>-68.441100000000006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>44606.26734953704</v>
       </c>
       <c r="B227">
-        <v>-44.8686</v>
+        <v>-44.868600000000001</v>
       </c>
       <c r="C227">
-        <v>-67.2214</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>-67.221400000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
-        <v>44606.26753472222</v>
+        <v>44606.267534722218</v>
       </c>
       <c r="B228">
-        <v>-44.3777</v>
+        <v>-44.377699999999997</v>
       </c>
       <c r="C228">
-        <v>-66.0566</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>-66.056600000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
-        <v>44606.26770833333</v>
+        <v>44606.267708333333</v>
       </c>
       <c r="B229">
         <v>-43.8752</v>
       </c>
       <c r="C229">
-        <v>-64.91589999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>-64.915899999999993</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
-        <v>44606.26789351852</v>
+        <v>44606.267893518518</v>
       </c>
       <c r="B230">
-        <v>-43.3604</v>
+        <v>-43.360399999999998</v>
       </c>
       <c r="C230">
-        <v>-63.7959</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>-63.795900000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
-        <v>44606.26806712963</v>
+        <v>44606.268067129633</v>
       </c>
       <c r="B231">
-        <v>-42.8336</v>
+        <v>-42.833599999999997</v>
       </c>
       <c r="C231">
-        <v>-62.6962</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>-62.696199999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
-        <v>44606.26825231482</v>
+        <v>44606.268252314818</v>
       </c>
       <c r="B232">
-        <v>-42.2777</v>
+        <v>-42.277700000000003</v>
       </c>
       <c r="C232">
-        <v>-61.5821</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>-61.582099999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
-        <v>44606.2684375</v>
+        <v>44606.268437500003</v>
       </c>
       <c r="B233">
-        <v>-41.7279</v>
+        <v>-41.727899999999998</v>
       </c>
       <c r="C233">
-        <v>-60.523</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>-60.523000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
-        <v>44606.26861111111</v>
+        <v>44606.268611111111</v>
       </c>
       <c r="B234">
-        <v>-41.1673</v>
+        <v>-41.167299999999997</v>
       </c>
       <c r="C234">
-        <v>-59.483</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>-59.482999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
-        <v>44606.2687962963</v>
+        <v>44606.268796296303</v>
       </c>
       <c r="B235">
         <v>-40.5777</v>
       </c>
       <c r="C235">
-        <v>-58.4293</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>-58.429299999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>44606.26898148148</v>
       </c>
       <c r="B236">
-        <v>-39.9962</v>
+        <v>-39.996200000000002</v>
       </c>
       <c r="C236">
-        <v>-57.4271</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>-57.427100000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
-        <v>44606.2691550926</v>
+        <v>44606.269155092603</v>
       </c>
       <c r="B237">
-        <v>-39.4052</v>
+        <v>-39.405200000000001</v>
       </c>
       <c r="C237">
-        <v>-56.4433</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>-56.443300000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>44606.26934027778</v>
       </c>
       <c r="B238">
-        <v>-38.8049</v>
+        <v>-38.804900000000004</v>
       </c>
       <c r="C238">
-        <v>-55.4772</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>-55.477200000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
-        <v>44606.26951388889</v>
+        <v>44606.269513888888</v>
       </c>
       <c r="B239">
-        <v>-38.1956</v>
+        <v>-38.195599999999999</v>
       </c>
       <c r="C239">
-        <v>-54.5284</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>-54.528399999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
-        <v>44606.26969907407</v>
+        <v>44606.269699074073</v>
       </c>
       <c r="B240">
-        <v>-37.5577</v>
+        <v>-37.557699999999997</v>
       </c>
       <c r="C240">
         <v>-53.567</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
-        <v>44606.26988425926</v>
+        <v>44606.269884259258</v>
       </c>
       <c r="B241">
         <v>-36.9313</v>
       </c>
       <c r="C241">
-        <v>-52.6522</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>-52.652200000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
-        <v>44606.27005787037</v>
+        <v>44606.270057870373</v>
       </c>
       <c r="B242">
         <v>-36.2971</v>
       </c>
       <c r="C242">
-        <v>-51.7536</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>-51.753599999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
-        <v>44606.27024305556</v>
+        <v>44606.270243055558</v>
       </c>
       <c r="B243">
-        <v>-35.6551</v>
+        <v>-35.655099999999997</v>
       </c>
       <c r="C243">
-        <v>-50.8704</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>-50.870399999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
-        <v>44606.27042824074</v>
+        <v>44606.270428240743</v>
       </c>
       <c r="B244">
-        <v>-35.0058</v>
+        <v>-35.005800000000001</v>
       </c>
       <c r="C244">
-        <v>-50.0026</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>-50.002600000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
-        <v>44606.27061342593</v>
+        <v>44606.270613425928</v>
       </c>
       <c r="B245">
-        <v>-34.3281</v>
+        <v>-34.328099999999999</v>
       </c>
       <c r="C245">
-        <v>-49.1222</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>-49.122199999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
-        <v>44606.27078703704</v>
+        <v>44606.270787037043</v>
       </c>
       <c r="B246">
         <v>-33.6648</v>
       </c>
       <c r="C246">
-        <v>-48.2838</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>-48.283799999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
-        <v>44606.27097222222</v>
+        <v>44606.270972222221</v>
       </c>
       <c r="B247">
-        <v>-32.9948</v>
+        <v>-32.994799999999998</v>
       </c>
       <c r="C247">
-        <v>-47.4592</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>-47.459200000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
-        <v>44606.27114583334</v>
+        <v>44606.271145833343</v>
       </c>
       <c r="B248">
         <v>-32.3185</v>
@@ -3118,251 +3170,251 @@
         <v>-46.6479</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
-        <v>44606.27133101852</v>
+        <v>44606.271331018521</v>
       </c>
       <c r="B249">
-        <v>-31.6365</v>
+        <v>-31.636500000000002</v>
       </c>
       <c r="C249">
         <v>-45.85</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
-        <v>44606.27151620371</v>
+        <v>44606.271516203713</v>
       </c>
       <c r="B250">
-        <v>-30.9263</v>
+        <v>-30.926300000000001</v>
       </c>
       <c r="C250">
-        <v>-45.0395</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>-45.039499999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
-        <v>44606.27168981481</v>
+        <v>44606.271689814806</v>
       </c>
       <c r="B251">
-        <v>-30.2328</v>
+        <v>-30.232800000000001</v>
       </c>
       <c r="C251">
         <v>-44.2667</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
-        <v>44606.271875</v>
+        <v>44606.271874999999</v>
       </c>
       <c r="B252">
-        <v>-29.534</v>
+        <v>-29.533999999999999</v>
       </c>
       <c r="C252">
-        <v>-43.5056</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>-43.505600000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
-        <v>44606.27204861111</v>
+        <v>44606.272048611107</v>
       </c>
       <c r="B253">
         <v>-28.83</v>
       </c>
       <c r="C253">
-        <v>-42.7559</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>-42.755899999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
-        <v>44606.2722337963</v>
+        <v>44606.272233796299</v>
       </c>
       <c r="B254">
-        <v>-28.1213</v>
+        <v>-28.121300000000002</v>
       </c>
       <c r="C254">
-        <v>-42.0171</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>-42.017099999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
-        <v>44606.27241898148</v>
+        <v>44606.272418981483</v>
       </c>
       <c r="B255">
-        <v>-27.3847</v>
+        <v>-27.384699999999999</v>
       </c>
       <c r="C255">
-        <v>-41.2656</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>-41.265599999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
-        <v>44606.27259259259</v>
+        <v>44606.272592592592</v>
       </c>
       <c r="B256">
-        <v>-26.6667</v>
+        <v>-26.666699999999999</v>
       </c>
       <c r="C256">
-        <v>-40.548</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>-40.548000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
-        <v>44606.27277777778</v>
+        <v>44606.272777777784</v>
       </c>
       <c r="B257">
-        <v>-25.9443</v>
+        <v>-25.944299999999998</v>
       </c>
       <c r="C257">
         <v>-39.8401</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
-        <v>44606.27295138889</v>
+        <v>44606.272951388892</v>
       </c>
       <c r="B258">
         <v>-25.2179</v>
       </c>
       <c r="C258">
-        <v>-39.1416</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>-39.141599999999997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
-        <v>44606.27313657408</v>
+        <v>44606.273136574076</v>
       </c>
       <c r="B259">
         <v>-24.4877</v>
       </c>
       <c r="C259">
-        <v>-38.4523</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>-38.452300000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
-        <v>44606.27332175926</v>
+        <v>44606.273321759261</v>
       </c>
       <c r="B260">
-        <v>-23.7299</v>
+        <v>-23.729900000000001</v>
       </c>
       <c r="C260">
-        <v>-37.7499</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>-37.749899999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
-        <v>44606.27350694445</v>
+        <v>44606.273506944453</v>
       </c>
       <c r="B261">
         <v>-22.9923</v>
       </c>
       <c r="C261">
-        <v>-37.078</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>-37.078000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
-        <v>44606.27368055555</v>
+        <v>44606.273680555547</v>
       </c>
       <c r="B262">
-        <v>-22.2512</v>
+        <v>-22.251200000000001</v>
       </c>
       <c r="C262">
-        <v>-36.4139</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>-36.413899999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
-        <v>44606.27386574074</v>
+        <v>44606.273865740739</v>
       </c>
       <c r="B263">
-        <v>-21.5068</v>
+        <v>-21.506799999999998</v>
       </c>
       <c r="C263">
-        <v>-35.7576</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>-35.757599999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
-        <v>44606.27405092592</v>
+        <v>44606.274050925917</v>
       </c>
       <c r="B264">
-        <v>-20.7352</v>
+        <v>-20.735199999999999</v>
       </c>
       <c r="C264">
-        <v>-35.0879</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>-35.087899999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
-        <v>44606.27422453704</v>
+        <v>44606.274224537039</v>
       </c>
       <c r="B265">
-        <v>-19.9844</v>
+        <v>-19.984400000000001</v>
       </c>
       <c r="C265">
-        <v>-34.4459</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>-34.445900000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
-        <v>44606.27440972222</v>
+        <v>44606.274409722217</v>
       </c>
       <c r="B266">
-        <v>-19.231</v>
+        <v>-19.231000000000002</v>
       </c>
       <c r="C266">
         <v>-33.8108</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
-        <v>44606.27458333333</v>
+        <v>44606.274583333332</v>
       </c>
       <c r="B267">
-        <v>-18.475</v>
+        <v>-18.475000000000001</v>
       </c>
       <c r="C267">
-        <v>-33.1821</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>-33.182099999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
-        <v>44606.27476851852</v>
+        <v>44606.274768518517</v>
       </c>
       <c r="B268">
         <v>-17.7165</v>
       </c>
       <c r="C268">
-        <v>-32.5596</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>-32.559600000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
-        <v>44606.2749537037</v>
+        <v>44606.274953703702</v>
       </c>
       <c r="B269">
-        <v>-16.931</v>
+        <v>-16.931000000000001</v>
       </c>
       <c r="C269">
-        <v>-31.923</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>-31.922999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
-        <v>44606.27512731482</v>
+        <v>44606.275127314817</v>
       </c>
       <c r="B270">
         <v>-16.1676</v>
       </c>
       <c r="C270">
-        <v>-31.3118</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>-31.311800000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
-        <v>44606.2753125</v>
+        <v>44606.275312500002</v>
       </c>
       <c r="B271">
         <v>-15.4023</v>
@@ -3371,7 +3423,7 @@
         <v>-30.7059</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>44606.27548611111</v>
       </c>
@@ -3379,34 +3431,34 @@
         <v>-14.6348</v>
       </c>
       <c r="C272">
-        <v>-30.1049</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>-30.104900000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
-        <v>44606.27567129629</v>
+        <v>44606.275671296287</v>
       </c>
       <c r="B273">
-        <v>-13.8655</v>
+        <v>-13.865500000000001</v>
       </c>
       <c r="C273">
-        <v>-29.5085</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>-29.508500000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
-        <v>44606.27585648148</v>
+        <v>44606.275856481479</v>
       </c>
       <c r="B274">
         <v>-13.0694</v>
       </c>
       <c r="C274">
-        <v>-28.8974</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>-28.897400000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
-        <v>44606.27603009259</v>
+        <v>44606.276030092587</v>
       </c>
       <c r="B275">
         <v>-12.2964</v>
@@ -3415,7 +3467,7 @@
         <v>-28.3096</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>44606.27621527778</v>
       </c>
@@ -3426,53 +3478,53 @@
         <v>-27.7255</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
-        <v>44606.27638888889</v>
+        <v>44606.276388888888</v>
       </c>
       <c r="B277">
         <v>-10.746</v>
       </c>
       <c r="C277">
-        <v>-27.1451</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>-27.145099999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
-        <v>44606.27657407407</v>
+        <v>44606.276574074072</v>
       </c>
       <c r="B278">
         <v>-9.9436</v>
       </c>
       <c r="C278">
-        <v>-26.5493</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>-26.549299999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
-        <v>44606.27675925926</v>
+        <v>44606.276759259257</v>
       </c>
       <c r="B279">
-        <v>-9.165100000000001</v>
+        <v>-9.1651000000000007</v>
       </c>
       <c r="C279">
-        <v>-25.9753</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>-25.975300000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
-        <v>44606.27694444444</v>
+        <v>44606.276944444442</v>
       </c>
       <c r="B280">
-        <v>-8.385400000000001</v>
+        <v>-8.3854000000000006</v>
       </c>
       <c r="C280">
         <v>-25.4041</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
-        <v>44606.27711805556</v>
+        <v>44606.277118055557</v>
       </c>
       <c r="B281">
         <v>-7.6044</v>
@@ -3481,658 +3533,658 @@
         <v>-24.8352</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
-        <v>44606.27730324074</v>
+        <v>44606.277303240742</v>
       </c>
       <c r="B282">
-        <v>-6.8226</v>
+        <v>-6.8226000000000004</v>
       </c>
       <c r="C282">
-        <v>-24.2687</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>-24.268699999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
-        <v>44606.27748842593</v>
+        <v>44606.277488425927</v>
       </c>
       <c r="B283">
-        <v>-6.0148</v>
+        <v>-6.0148000000000001</v>
       </c>
       <c r="C283">
         <v>-23.6861</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
-        <v>44606.27766203704</v>
+        <v>44606.277662037042</v>
       </c>
       <c r="B284">
-        <v>-5.2313</v>
+        <v>-5.2313000000000001</v>
       </c>
       <c r="C284">
         <v>-23.1235</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>44606.27784722222</v>
       </c>
       <c r="B285">
-        <v>-4.447</v>
+        <v>-4.4470000000000001</v>
       </c>
       <c r="C285">
-        <v>-22.5622</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>-22.562200000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
-        <v>44606.27802083334</v>
+        <v>44606.278020833342</v>
       </c>
       <c r="B286">
-        <v>-3.6623</v>
+        <v>-3.6623000000000001</v>
       </c>
       <c r="C286">
-        <v>-22.0024</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>-22.002400000000002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>44606.27820601852</v>
       </c>
       <c r="B287">
-        <v>-2.8772</v>
+        <v>-2.8772000000000002</v>
       </c>
       <c r="C287">
         <v>-21.4437</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
-        <v>44606.2783912037</v>
+        <v>44606.278391203698</v>
       </c>
       <c r="B288">
-        <v>-2.0664</v>
+        <v>-2.0663999999999998</v>
       </c>
       <c r="C288">
-        <v>-20.8679</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>-20.867899999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
-        <v>44606.27856481481</v>
+        <v>44606.278564814813</v>
       </c>
       <c r="B289">
         <v>-1.2805</v>
       </c>
       <c r="C289">
-        <v>-20.3106</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>-20.310600000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
-        <v>44606.27875</v>
+        <v>44606.278749999998</v>
       </c>
       <c r="B290">
         <v>-0.4945</v>
       </c>
       <c r="C290">
-        <v>-19.7536</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>-19.753599999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
-        <v>44606.27892361111</v>
+        <v>44606.278923611113</v>
       </c>
       <c r="B291">
-        <v>0.2917</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="C291">
         <v>-19.1968</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
-        <v>44606.2791087963</v>
+        <v>44606.279108796298</v>
       </c>
       <c r="B292">
-        <v>1.0776</v>
+        <v>1.0775999999999999</v>
       </c>
       <c r="C292">
-        <v>-18.6399</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>-18.639900000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
-        <v>44606.27929398148</v>
+        <v>44606.279293981483</v>
       </c>
       <c r="B293">
         <v>1.8889</v>
       </c>
       <c r="C293">
-        <v>-18.0647</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>-18.064699999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
-        <v>44606.27946759259</v>
+        <v>44606.279467592591</v>
       </c>
       <c r="B294">
-        <v>2.6747</v>
+        <v>2.6747000000000001</v>
       </c>
       <c r="C294">
-        <v>-17.5069</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>-17.506900000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
-        <v>44606.27965277778</v>
+        <v>44606.279652777783</v>
       </c>
       <c r="B295">
-        <v>3.4601</v>
+        <v>3.4601000000000002</v>
       </c>
       <c r="C295">
         <v>-16.9482</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
-        <v>44606.27982638889</v>
+        <v>44606.279826388891</v>
       </c>
       <c r="B296">
-        <v>4.2453</v>
+        <v>4.2453000000000003</v>
       </c>
       <c r="C296">
-        <v>-16.3885</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>-16.388500000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
-        <v>44606.28002314815</v>
+        <v>44606.280023148152</v>
       </c>
       <c r="B297">
-        <v>5.0552</v>
+        <v>5.0552000000000001</v>
       </c>
       <c r="C297">
         <v>-15.8093</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>44606.28019675926</v>
       </c>
       <c r="B298">
-        <v>5.8393</v>
+        <v>5.8392999999999997</v>
       </c>
       <c r="C298">
-        <v>-15.2467</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>-15.246700000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
-        <v>44606.28038194445</v>
+        <v>44606.280381944453</v>
       </c>
       <c r="B299">
-        <v>6.6226</v>
+        <v>6.6226000000000003</v>
       </c>
       <c r="C299">
         <v>-14.6823</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
-        <v>44606.28055555555</v>
+        <v>44606.280555555553</v>
       </c>
       <c r="B300">
-        <v>7.4053</v>
+        <v>7.4053000000000004</v>
       </c>
       <c r="C300">
         <v>-14.1158</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
-        <v>44606.28074074074</v>
+        <v>44606.280740740738</v>
       </c>
       <c r="B301">
-        <v>8.187099999999999</v>
+        <v>8.1870999999999992</v>
       </c>
       <c r="C301">
-        <v>-13.547</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>-13.547000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
-        <v>44606.28092592592</v>
+        <v>44606.280925925923</v>
       </c>
       <c r="B302">
-        <v>8.9931</v>
+        <v>8.9931000000000001</v>
       </c>
       <c r="C302">
         <v>-12.9573</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
-        <v>44606.28109953704</v>
+        <v>44606.281099537038</v>
       </c>
       <c r="B303">
-        <v>9.7728</v>
+        <v>9.7728000000000002</v>
       </c>
       <c r="C303">
         <v>-12.3832</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
-        <v>44606.28128472222</v>
+        <v>44606.281284722223</v>
       </c>
       <c r="B304">
-        <v>10.5514</v>
+        <v>10.551399999999999</v>
       </c>
       <c r="C304">
-        <v>-11.806</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>-11.805999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
-        <v>44606.28145833333</v>
+        <v>44606.281458333331</v>
       </c>
       <c r="B305">
-        <v>11.3288</v>
+        <v>11.328799999999999</v>
       </c>
       <c r="C305">
         <v>-11.2255</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
-        <v>44606.28164351852</v>
+        <v>44606.281643518523</v>
       </c>
       <c r="B306">
-        <v>12.1047</v>
+        <v>12.104699999999999</v>
       </c>
       <c r="C306">
-        <v>-10.6415</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>-10.641500000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
-        <v>44606.2818287037</v>
+        <v>44606.281828703701</v>
       </c>
       <c r="B307">
         <v>12.9041</v>
       </c>
       <c r="C307">
-        <v>-10.0346</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>-10.034599999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
-        <v>44606.28200231482</v>
+        <v>44606.282002314823</v>
       </c>
       <c r="B308">
         <v>13.6769</v>
       </c>
       <c r="C308">
-        <v>-9.442600000000001</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>-9.4426000000000005</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
-        <v>44606.2821875</v>
+        <v>44606.282187500001</v>
       </c>
       <c r="B309">
-        <v>14.4479</v>
+        <v>14.447900000000001</v>
       </c>
       <c r="C309">
-        <v>-8.846299999999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>-8.8462999999999994</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
-        <v>44606.28236111111</v>
+        <v>44606.282361111109</v>
       </c>
       <c r="B310">
         <v>15.2171</v>
       </c>
       <c r="C310">
-        <v>-8.2453</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>-8.2453000000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
-        <v>44606.28254629629</v>
+        <v>44606.282546296286</v>
       </c>
       <c r="B311">
         <v>16.009</v>
       </c>
       <c r="C311">
-        <v>-7.6198</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>-7.6197999999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
-        <v>44606.28273148148</v>
+        <v>44606.282731481479</v>
       </c>
       <c r="B312">
         <v>16.7742</v>
       </c>
       <c r="C312">
-        <v>-7.0085</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>-7.0084999999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
-        <v>44606.28290509259</v>
+        <v>44606.282905092587</v>
       </c>
       <c r="B313">
-        <v>17.5371</v>
+        <v>17.537099999999999</v>
       </c>
       <c r="C313">
-        <v>-6.3917</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>-6.3917000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
-        <v>44606.28310185186</v>
+        <v>44606.283101851863</v>
       </c>
       <c r="B314">
-        <v>18.3711</v>
+        <v>18.371099999999998</v>
       </c>
       <c r="C314">
-        <v>-5.7087</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>-5.7087000000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>44606.28329861111</v>
       </c>
       <c r="B315">
-        <v>19.1535</v>
+        <v>19.153500000000001</v>
       </c>
       <c r="C315">
-        <v>-5.0589</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>-5.0589000000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
-        <v>44606.28347222223</v>
+        <v>44606.283472222232</v>
       </c>
       <c r="B316">
-        <v>19.9088</v>
+        <v>19.908799999999999</v>
       </c>
       <c r="C316">
         <v>-4.423</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>44606.28365740741</v>
       </c>
       <c r="B317">
-        <v>20.6612</v>
+        <v>20.661200000000001</v>
       </c>
       <c r="C317">
-        <v>-3.7804</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>-3.7804000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
-        <v>44606.28383101852</v>
+        <v>44606.283831018518</v>
       </c>
       <c r="B318">
-        <v>21.4108</v>
+        <v>21.410799999999998</v>
       </c>
       <c r="C318">
         <v>-3.1307</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
-        <v>44606.2840162037</v>
+        <v>44606.284016203703</v>
       </c>
       <c r="B319">
-        <v>22.1574</v>
+        <v>22.157399999999999</v>
       </c>
       <c r="C319">
-        <v>-2.4736</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>-2.4735999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
-        <v>44606.28420138889</v>
+        <v>44606.284201388888</v>
       </c>
       <c r="B320">
-        <v>22.9247</v>
+        <v>22.924700000000001</v>
       </c>
       <c r="C320">
-        <v>-1.7872</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>-1.7871999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
-        <v>44606.284375</v>
+        <v>44606.284375000003</v>
       </c>
       <c r="B321">
         <v>23.6646</v>
       </c>
       <c r="C321">
-        <v>-1.114</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>-1.1140000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
-        <v>44606.28456018519</v>
+        <v>44606.284560185188</v>
       </c>
       <c r="B322">
         <v>24.401</v>
       </c>
       <c r="C322">
-        <v>-0.4324</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>-0.43240000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
-        <v>44606.2847337963</v>
+        <v>44606.284733796303</v>
       </c>
       <c r="B323">
-        <v>25.1338</v>
+        <v>25.133800000000001</v>
       </c>
       <c r="C323">
-        <v>0.258</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
-        <v>44606.28491898148</v>
+        <v>44606.284918981481</v>
       </c>
       <c r="B324">
-        <v>25.8861</v>
+        <v>25.886099999999999</v>
       </c>
       <c r="C324">
-        <v>0.9802999999999999</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>0.98029999999999995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
-        <v>44606.28510416667</v>
+        <v>44606.285104166673</v>
       </c>
       <c r="B325">
-        <v>26.6108</v>
+        <v>26.610800000000001</v>
       </c>
       <c r="C325">
         <v>1.6896</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
-        <v>44606.28527777778</v>
+        <v>44606.285277777781</v>
       </c>
       <c r="B326">
-        <v>27.3313</v>
+        <v>27.331299999999999</v>
       </c>
       <c r="C326">
-        <v>2.4088</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>2.4087999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
-        <v>44606.28546296297</v>
+        <v>44606.285462962973</v>
       </c>
       <c r="B327">
         <v>28.0474</v>
       </c>
       <c r="C327">
-        <v>3.1382</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>3.1381999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
-        <v>44606.28563657407</v>
+        <v>44606.285636574074</v>
       </c>
       <c r="B328">
-        <v>28.7588</v>
+        <v>28.758800000000001</v>
       </c>
       <c r="C328">
-        <v>3.8784</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>3.8784000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
-        <v>44606.28582175926</v>
+        <v>44606.285821759258</v>
       </c>
       <c r="B329">
-        <v>29.4882</v>
+        <v>29.488199999999999</v>
       </c>
       <c r="C329">
-        <v>4.654</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>4.6539999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
-        <v>44606.28600694444</v>
+        <v>44606.286006944443</v>
       </c>
       <c r="B330">
-        <v>30.1896</v>
+        <v>30.189599999999999</v>
       </c>
       <c r="C330">
-        <v>5.417</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>5.4169999999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
-        <v>44606.28618055556</v>
+        <v>44606.286180555559</v>
       </c>
       <c r="B331">
         <v>30.8858</v>
       </c>
       <c r="C331">
-        <v>6.1919</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>6.1919000000000004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
-        <v>44606.28636574074</v>
+        <v>44606.286365740743</v>
       </c>
       <c r="B332">
         <v>31.5764</v>
       </c>
       <c r="C332">
-        <v>6.979</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>6.9790000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
-        <v>44606.28653935185</v>
+        <v>44606.286539351851</v>
       </c>
       <c r="B333">
-        <v>32.2614</v>
+        <v>32.261400000000002</v>
       </c>
       <c r="C333">
-        <v>7.7789</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>7.7789000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
-        <v>44606.28673611111</v>
+        <v>44606.286736111113</v>
       </c>
       <c r="B334">
-        <v>32.9622</v>
+        <v>32.962200000000003</v>
       </c>
       <c r="C334">
-        <v>8.618399999999999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>8.6183999999999994</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
-        <v>44606.28690972222</v>
+        <v>44606.286909722221</v>
       </c>
       <c r="B335">
-        <v>33.6348</v>
+        <v>33.634799999999998</v>
       </c>
       <c r="C335">
-        <v>9.445499999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>9.4454999999999991</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
-        <v>44606.28709490741</v>
+        <v>44606.287094907413</v>
       </c>
       <c r="B336">
-        <v>34.3008</v>
+        <v>34.300800000000002</v>
       </c>
       <c r="C336">
         <v>10.2866</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
-        <v>44606.28726851852</v>
+        <v>44606.287268518521</v>
       </c>
       <c r="B337">
         <v>34.9602</v>
       </c>
       <c r="C337">
-        <v>11.1421</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>11.142099999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
-        <v>44606.28745370371</v>
+        <v>44606.287453703713</v>
       </c>
       <c r="B338">
-        <v>35.6125</v>
+        <v>35.612499999999997</v>
       </c>
       <c r="C338">
-        <v>12.0126</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>12.012600000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
-        <v>44606.28763888889</v>
+        <v>44606.287638888891</v>
       </c>
       <c r="B339">
-        <v>36.2781</v>
+        <v>36.278100000000002</v>
       </c>
       <c r="C339">
-        <v>12.9273</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>12.927300000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
-        <v>44606.2878125</v>
+        <v>44606.287812499999</v>
       </c>
       <c r="B340">
-        <v>36.9152</v>
+        <v>36.915199999999999</v>
       </c>
       <c r="C340">
         <v>13.8294</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
-        <v>44606.28799768518</v>
+        <v>44606.287997685176</v>
       </c>
       <c r="B341">
         <v>37.5443</v>
@@ -4141,227 +4193,227 @@
         <v>14.7476</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
-        <v>44606.2881712963</v>
+        <v>44606.288171296299</v>
       </c>
       <c r="B342">
-        <v>38.165</v>
+        <v>38.164999999999999</v>
       </c>
       <c r="C342">
-        <v>15.6826</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>15.682600000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
-        <v>44606.28835648148</v>
+        <v>44606.288356481477</v>
       </c>
       <c r="B343">
-        <v>38.7969</v>
+        <v>38.796900000000001</v>
       </c>
       <c r="C343">
-        <v>16.6658</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>16.665800000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
-        <v>44606.28854166667</v>
+        <v>44606.288541666669</v>
       </c>
       <c r="B344">
-        <v>39.3999</v>
+        <v>39.399900000000002</v>
       </c>
       <c r="C344">
-        <v>17.636</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <v>17.635999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
-        <v>44606.28871527778</v>
+        <v>44606.288715277777</v>
       </c>
       <c r="B345">
-        <v>39.9935</v>
+        <v>39.993499999999997</v>
       </c>
       <c r="C345">
-        <v>18.6242</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>18.624199999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
-        <v>44606.28890046296</v>
+        <v>44606.288900462961</v>
       </c>
       <c r="B346">
-        <v>40.5774</v>
+        <v>40.577399999999997</v>
       </c>
       <c r="C346">
-        <v>19.6307</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>19.630700000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
-        <v>44606.28907407408</v>
+        <v>44606.289074074077</v>
       </c>
       <c r="B347">
-        <v>41.1512</v>
+        <v>41.151200000000003</v>
       </c>
       <c r="C347">
-        <v>20.6559</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>20.655899999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
-        <v>44606.28925925926</v>
+        <v>44606.289259259262</v>
       </c>
       <c r="B348">
-        <v>41.7326</v>
+        <v>41.732599999999998</v>
       </c>
       <c r="C348">
-        <v>21.7343</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+        <v>21.734300000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
-        <v>44606.28944444445</v>
+        <v>44606.289444444446</v>
       </c>
       <c r="B349">
-        <v>42.2848</v>
+        <v>42.284799999999997</v>
       </c>
       <c r="C349">
-        <v>22.799</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <v>22.798999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
-        <v>44606.28961805555</v>
+        <v>44606.289618055547</v>
       </c>
       <c r="B350">
-        <v>42.8258</v>
+        <v>42.825800000000001</v>
       </c>
       <c r="C350">
-        <v>23.8835</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>23.883500000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
-        <v>44606.28980324074</v>
+        <v>44606.289803240739</v>
       </c>
       <c r="B351">
         <v>43.3551</v>
       </c>
       <c r="C351">
-        <v>24.9881</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+        <v>24.988099999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
-        <v>44606.28998842592</v>
+        <v>44606.289988425917</v>
       </c>
       <c r="B352">
-        <v>43.8721</v>
+        <v>43.872100000000003</v>
       </c>
       <c r="C352">
         <v>26.1129</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
-        <v>44606.29017361111</v>
+        <v>44606.290173611109</v>
       </c>
       <c r="B353">
-        <v>44.3927</v>
+        <v>44.392699999999998</v>
       </c>
       <c r="C353">
         <v>27.2956</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
-        <v>44606.29034722222</v>
+        <v>44606.290347222217</v>
       </c>
       <c r="B354">
-        <v>44.8838</v>
+        <v>44.883800000000001</v>
       </c>
       <c r="C354">
-        <v>28.4625</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>28.462499999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
-        <v>44606.29053240741</v>
+        <v>44606.290532407409</v>
       </c>
       <c r="B355">
         <v>45.3613</v>
       </c>
       <c r="C355">
-        <v>29.6504</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+        <v>29.650400000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
-        <v>44606.29070601852</v>
+        <v>44606.290706018517</v>
       </c>
       <c r="B356">
-        <v>45.825</v>
+        <v>45.825000000000003</v>
       </c>
       <c r="C356">
-        <v>30.8593</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>30.859300000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
-        <v>44606.2908912037</v>
+        <v>44606.290891203702</v>
       </c>
       <c r="B357">
         <v>46.2742</v>
       </c>
       <c r="C357">
-        <v>32.0893</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>32.089300000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
-        <v>44606.29107638889</v>
+        <v>44606.291076388887</v>
       </c>
       <c r="B358">
         <v>46.7224</v>
       </c>
       <c r="C358">
-        <v>33.3813</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>33.381300000000003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
-        <v>44606.29125</v>
+        <v>44606.291250000002</v>
       </c>
       <c r="B359">
-        <v>47.141</v>
+        <v>47.140999999999998</v>
       </c>
       <c r="C359">
         <v>34.6541</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
-        <v>44606.29143518519</v>
+        <v>44606.291435185187</v>
       </c>
       <c r="B360">
-        <v>47.5437</v>
+        <v>47.543700000000001</v>
       </c>
       <c r="C360">
-        <v>35.9479</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>35.947899999999997</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
-        <v>44606.29160879629</v>
+        <v>44606.291608796288</v>
       </c>
       <c r="B361">
-        <v>47.9302</v>
+        <v>47.930199999999999</v>
       </c>
       <c r="C361">
         <v>37.2624</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>44606.29179398148</v>
       </c>
@@ -4372,282 +4424,282 @@
         <v>38.5976</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
-        <v>44606.29197916666</v>
+        <v>44606.291979166657</v>
       </c>
       <c r="B363">
-        <v>48.6635</v>
+        <v>48.663499999999999</v>
       </c>
       <c r="C363">
-        <v>39.9964</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <v>39.996400000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>44606.29215277778</v>
       </c>
       <c r="B364">
-        <v>48.9976</v>
+        <v>48.997599999999998</v>
       </c>
       <c r="C364">
-        <v>41.3715</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <v>41.371499999999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
-        <v>44606.29233796296</v>
+        <v>44606.292337962957</v>
       </c>
       <c r="B365">
-        <v>49.3137</v>
+        <v>49.313699999999997</v>
       </c>
       <c r="C365">
-        <v>42.7656</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+        <v>42.765599999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
-        <v>44606.29251157407</v>
+        <v>44606.292511574073</v>
       </c>
       <c r="B366">
-        <v>49.611</v>
+        <v>49.610999999999997</v>
       </c>
       <c r="C366">
-        <v>44.1779</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>44.177900000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
-        <v>44606.29269675926</v>
+        <v>44606.292696759258</v>
       </c>
       <c r="B367">
-        <v>49.898</v>
+        <v>49.898000000000003</v>
       </c>
       <c r="C367">
-        <v>45.654</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>45.654000000000003</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
-        <v>44606.29288194444</v>
+        <v>44606.292881944442</v>
       </c>
       <c r="B368">
-        <v>50.1562</v>
+        <v>50.156199999999998</v>
       </c>
       <c r="C368">
-        <v>47.1012</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+        <v>47.101199999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
-        <v>44606.29305555556</v>
+        <v>44606.293055555558</v>
       </c>
       <c r="B369">
-        <v>50.3946</v>
+        <v>50.394599999999997</v>
       </c>
       <c r="C369">
-        <v>48.5641</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
+        <v>48.564100000000003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
-        <v>44606.29324074074</v>
+        <v>44606.293240740742</v>
       </c>
       <c r="B370">
         <v>50.6128</v>
       </c>
       <c r="C370">
-        <v>50.0417</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <v>50.041699999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
-        <v>44606.29342592593</v>
+        <v>44606.293425925927</v>
       </c>
       <c r="B371">
-        <v>50.8104</v>
+        <v>50.810400000000001</v>
       </c>
       <c r="C371">
-        <v>51.5331</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
+        <v>51.533099999999997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
-        <v>44606.29361111111</v>
+        <v>44606.293611111112</v>
       </c>
       <c r="B372">
-        <v>50.9924</v>
+        <v>50.992400000000004</v>
       </c>
       <c r="C372">
-        <v>53.0859</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>53.085900000000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>44606.29378472222</v>
       </c>
       <c r="B373">
-        <v>51.1472</v>
+        <v>51.147199999999998</v>
       </c>
       <c r="C373">
-        <v>54.6015</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
+        <v>54.601500000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
-        <v>44606.2939699074</v>
+        <v>44606.293969907398</v>
       </c>
       <c r="B374">
         <v>51.2806</v>
       </c>
       <c r="C374">
-        <v>56.1272</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
+        <v>56.127200000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>44606.29414351852</v>
       </c>
       <c r="B375">
-        <v>51.3923</v>
+        <v>51.392299999999999</v>
       </c>
       <c r="C375">
-        <v>57.6617</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <v>57.661700000000003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
-        <v>44606.29432870371</v>
+        <v>44606.294328703712</v>
       </c>
       <c r="B376">
         <v>51.4846</v>
       </c>
       <c r="C376">
-        <v>59.2527</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
+        <v>59.252699999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>44606.29451388889</v>
       </c>
       <c r="B377">
-        <v>51.5516</v>
+        <v>51.551600000000001</v>
       </c>
       <c r="C377">
         <v>60.8</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
-        <v>44606.2946875</v>
+        <v>44606.294687499998</v>
       </c>
       <c r="B378">
-        <v>51.5965</v>
+        <v>51.596499999999999</v>
       </c>
       <c r="C378">
-        <v>62.351</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
+        <v>62.350999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
-        <v>44606.29487268518</v>
+        <v>44606.294872685183</v>
       </c>
       <c r="B379">
-        <v>51.6191</v>
+        <v>51.619100000000003</v>
       </c>
       <c r="C379">
-        <v>63.9045</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <v>63.904499999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
-        <v>44606.2950462963</v>
+        <v>44606.295046296298</v>
       </c>
       <c r="B380">
-        <v>51.6194</v>
+        <v>51.619399999999999</v>
       </c>
       <c r="C380">
         <v>65.4589</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
-        <v>44606.29523148148</v>
+        <v>44606.295231481483</v>
       </c>
       <c r="B381">
-        <v>51.5975</v>
+        <v>51.597499999999997</v>
       </c>
       <c r="C381">
-        <v>67.01260000000001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+        <v>67.012600000000006</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
-        <v>44606.29541666667</v>
+        <v>44606.295416666668</v>
       </c>
       <c r="B382">
-        <v>51.5515</v>
+        <v>51.551499999999997</v>
       </c>
       <c r="C382">
-        <v>68.61369999999999</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
+        <v>68.613699999999994</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
-        <v>44606.29559027778</v>
+        <v>44606.295590277783</v>
       </c>
       <c r="B383">
-        <v>51.4844</v>
+        <v>51.484400000000001</v>
       </c>
       <c r="C383">
-        <v>70.1609</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+        <v>70.160899999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
-        <v>44606.29577546296</v>
+        <v>44606.295775462961</v>
       </c>
       <c r="B384">
-        <v>51.3952</v>
+        <v>51.395200000000003</v>
       </c>
       <c r="C384">
-        <v>71.7024</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
+        <v>71.702399999999997</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
-        <v>44606.29594907408</v>
+        <v>44606.295949074083</v>
       </c>
       <c r="B385">
-        <v>51.2842</v>
+        <v>51.284199999999998</v>
       </c>
       <c r="C385">
-        <v>73.2371</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+        <v>73.237099999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
-        <v>44606.29613425926</v>
+        <v>44606.296134259261</v>
       </c>
       <c r="B386">
-        <v>51.1468</v>
+        <v>51.146799999999999</v>
       </c>
       <c r="C386">
-        <v>74.81229999999999</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
+        <v>74.812299999999993</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
-        <v>44606.29631944445</v>
+        <v>44606.296319444453</v>
       </c>
       <c r="B387">
-        <v>50.9919</v>
+        <v>50.991900000000001</v>
       </c>
       <c r="C387">
-        <v>76.32810000000001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <v>76.328100000000006</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>44606.29650462963</v>
       </c>
@@ -4655,166 +4707,166 @@
         <v>50.8157</v>
       </c>
       <c r="C388">
-        <v>77.83280000000001</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <v>77.832800000000006</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
-        <v>44606.29667824074</v>
+        <v>44606.296678240738</v>
       </c>
       <c r="B389">
-        <v>50.6187</v>
+        <v>50.618699999999997</v>
       </c>
       <c r="C389">
-        <v>79.325</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <v>79.325000000000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
-        <v>44606.29686342592</v>
+        <v>44606.296863425923</v>
       </c>
       <c r="B390">
         <v>50.4011</v>
       </c>
       <c r="C390">
-        <v>80.8034</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>80.803399999999996</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
-        <v>44606.29704861111</v>
+        <v>44606.297048611108</v>
       </c>
       <c r="B391">
-        <v>50.1552</v>
+        <v>50.155200000000001</v>
       </c>
       <c r="C391">
-        <v>82.3141</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>82.314099999999996</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
-        <v>44606.29722222222</v>
+        <v>44606.297222222223</v>
       </c>
       <c r="B392">
-        <v>49.8968</v>
+        <v>49.896799999999999</v>
       </c>
       <c r="C392">
-        <v>83.7617</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>83.761700000000005</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
-        <v>44606.29740740741</v>
+        <v>44606.297407407408</v>
       </c>
       <c r="B393">
         <v>49.6188</v>
       </c>
       <c r="C393">
-        <v>85.1926</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <v>85.192599999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
-        <v>44606.29758101852</v>
+        <v>44606.297581018523</v>
       </c>
       <c r="B394">
-        <v>49.3218</v>
+        <v>49.321800000000003</v>
       </c>
       <c r="C394">
-        <v>86.60599999999999</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
+        <v>86.605999999999995</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
-        <v>44606.2977662037</v>
+        <v>44606.297766203701</v>
       </c>
       <c r="B395">
-        <v>48.9957</v>
+        <v>48.995699999999999</v>
       </c>
       <c r="C395">
-        <v>88.0457</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
+        <v>88.045699999999997</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
-        <v>44606.29795138889</v>
+        <v>44606.297951388893</v>
       </c>
       <c r="B396">
-        <v>48.6613</v>
+        <v>48.661299999999997</v>
       </c>
       <c r="C396">
-        <v>89.4212</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
+        <v>89.421199999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
-        <v>44606.298125</v>
+        <v>44606.298125000001</v>
       </c>
       <c r="B397">
-        <v>48.3092</v>
+        <v>48.309199999999997</v>
       </c>
       <c r="C397">
-        <v>90.7771</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
+        <v>90.777100000000004</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
-        <v>44606.29831018519</v>
+        <v>44606.298310185193</v>
       </c>
       <c r="B398">
-        <v>47.9398</v>
+        <v>47.939799999999998</v>
       </c>
       <c r="C398">
         <v>92.113</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
-        <v>44606.29848379629</v>
+        <v>44606.298483796287</v>
       </c>
       <c r="B399">
-        <v>47.5536</v>
+        <v>47.553600000000003</v>
       </c>
       <c r="C399">
-        <v>93.4286</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
+        <v>93.428600000000003</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
-        <v>44606.29866898148</v>
+        <v>44606.298668981479</v>
       </c>
       <c r="B400">
-        <v>47.1378</v>
+        <v>47.137799999999999</v>
       </c>
       <c r="C400">
-        <v>94.76519999999999</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
+        <v>94.765199999999993</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
-        <v>44606.29885416666</v>
+        <v>44606.298854166656</v>
       </c>
       <c r="B401">
-        <v>46.7188</v>
+        <v>46.718800000000002</v>
       </c>
       <c r="C401">
-        <v>96.03879999999999</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
+        <v>96.038799999999995</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
-        <v>44606.29902777778</v>
+        <v>44606.299027777779</v>
       </c>
       <c r="B402">
-        <v>46.2845</v>
+        <v>46.284500000000001</v>
       </c>
       <c r="C402">
-        <v>97.29130000000001</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
+        <v>97.291300000000007</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
-        <v>44606.29921296296</v>
+        <v>44606.299212962957</v>
       </c>
       <c r="B403">
         <v>45.8352</v>
@@ -4823,20 +4875,20 @@
         <v>98.5227</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
-        <v>44606.29939814815</v>
+        <v>44606.299398148149</v>
       </c>
       <c r="B404">
-        <v>45.3564</v>
+        <v>45.356400000000001</v>
       </c>
       <c r="C404">
-        <v>99.7717</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
+        <v>99.771699999999996</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
-        <v>44606.29957175926</v>
+        <v>44606.299571759257</v>
       </c>
       <c r="B405">
         <v>44.8782</v>
@@ -4845,64 +4897,64 @@
         <v>100.9603</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
-        <v>44606.29975694444</v>
+        <v>44606.299756944441</v>
       </c>
       <c r="B406">
-        <v>44.3867</v>
+        <v>44.386699999999998</v>
       </c>
       <c r="C406">
         <v>102.1279</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
-        <v>44606.29994212963</v>
+        <v>44606.299942129634</v>
       </c>
       <c r="B407">
-        <v>43.8821</v>
+        <v>43.882100000000001</v>
       </c>
       <c r="C407">
         <v>103.2745</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
-        <v>44606.30011574074</v>
+        <v>44606.300115740742</v>
       </c>
       <c r="B408">
-        <v>43.3649</v>
+        <v>43.364899999999999</v>
       </c>
       <c r="C408">
         <v>104.4006</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
-        <v>44606.30030092593</v>
+        <v>44606.300300925926</v>
       </c>
       <c r="B409">
-        <v>42.8183</v>
+        <v>42.818300000000001</v>
       </c>
       <c r="C409">
         <v>105.5415</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
-        <v>44606.30048611111</v>
+        <v>44606.300486111111</v>
       </c>
       <c r="B410">
-        <v>42.2768</v>
+        <v>42.276800000000001</v>
       </c>
       <c r="C410">
-        <v>106.6265</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
+        <v>106.62649999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
-        <v>44606.30065972222</v>
+        <v>44606.300659722219</v>
       </c>
       <c r="B411">
         <v>41.7239</v>
@@ -4911,53 +4963,53 @@
         <v>107.6917</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
-        <v>44606.3008449074</v>
+        <v>44606.300844907397</v>
       </c>
       <c r="B412">
-        <v>41.1418</v>
+        <v>41.141800000000003</v>
       </c>
       <c r="C412">
         <v>108.771</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
-        <v>44606.3010300926</v>
+        <v>44606.301030092603</v>
       </c>
       <c r="B413">
-        <v>40.5673</v>
+        <v>40.567300000000003</v>
       </c>
       <c r="C413">
         <v>109.7968</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
-        <v>44606.3012037037</v>
+        <v>44606.301203703697</v>
       </c>
       <c r="B414">
-        <v>39.9828</v>
+        <v>39.982799999999997</v>
       </c>
       <c r="C414">
         <v>110.8038</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
-        <v>44606.30138888889</v>
+        <v>44606.301388888889</v>
       </c>
       <c r="B415">
-        <v>39.3885</v>
+        <v>39.388500000000001</v>
       </c>
       <c r="C415">
-        <v>111.7926</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>111.79259999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
-        <v>44606.30157407407</v>
+        <v>44606.301574074067</v>
       </c>
       <c r="B416">
         <v>38.7652</v>
@@ -4966,20 +5018,20 @@
         <v>112.7944</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
-        <v>44606.30174768518</v>
+        <v>44606.301747685182</v>
       </c>
       <c r="B417">
-        <v>38.1522</v>
+        <v>38.152200000000001</v>
       </c>
       <c r="C417">
-        <v>113.7472</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
+        <v>113.74720000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
-        <v>44606.30193287037</v>
+        <v>44606.301932870367</v>
       </c>
       <c r="B418">
         <v>37.5306</v>
@@ -4988,108 +5040,108 @@
         <v>114.6828</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
-        <v>44606.30210648148</v>
+        <v>44606.302106481482</v>
       </c>
       <c r="B419">
-        <v>36.9007</v>
+        <v>36.900700000000001</v>
       </c>
       <c r="C419">
-        <v>115.6017</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
+        <v>115.60169999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
-        <v>44606.30229166667</v>
+        <v>44606.302291666667</v>
       </c>
       <c r="B420">
-        <v>36.2628</v>
+        <v>36.262799999999999</v>
       </c>
       <c r="C420">
-        <v>116.5045</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
+        <v>116.50449999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
-        <v>44606.30247685185</v>
+        <v>44606.302476851852</v>
       </c>
       <c r="B421">
-        <v>35.5962</v>
+        <v>35.596200000000003</v>
       </c>
       <c r="C421">
         <v>117.4198</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>44606.30265046296</v>
       </c>
       <c r="B422">
-        <v>34.943</v>
+        <v>34.942999999999998</v>
       </c>
       <c r="C422">
-        <v>118.2909</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
+        <v>118.29089999999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
-        <v>44606.30283564814</v>
+        <v>44606.302835648137</v>
       </c>
       <c r="B423">
-        <v>34.2826</v>
+        <v>34.282600000000002</v>
       </c>
       <c r="C423">
         <v>119.1473</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
-        <v>44606.30302083334</v>
+        <v>44606.303020833337</v>
       </c>
       <c r="B424">
-        <v>33.6156</v>
+        <v>33.615600000000001</v>
       </c>
       <c r="C424">
         <v>119.9889</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
-        <v>44606.30320601852</v>
+        <v>44606.303206018521</v>
       </c>
       <c r="B425">
-        <v>32.9202</v>
+        <v>32.920200000000001</v>
       </c>
       <c r="C425">
         <v>120.8432</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
-        <v>44606.30337962963</v>
+        <v>44606.303379629629</v>
       </c>
       <c r="B426">
-        <v>32.2403</v>
+        <v>32.240299999999998</v>
       </c>
       <c r="C426">
         <v>121.6567</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
-        <v>44606.30356481481</v>
+        <v>44606.303564814807</v>
       </c>
       <c r="B427">
-        <v>31.5543</v>
+        <v>31.554300000000001</v>
       </c>
       <c r="C427">
         <v>122.4572</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
-        <v>44606.30373842592</v>
+        <v>44606.303738425922</v>
       </c>
       <c r="B428">
         <v>30.8626</v>
@@ -5098,64 +5150,64 @@
         <v>123.245</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
-        <v>44606.30392361111</v>
+        <v>44606.303923611107</v>
       </c>
       <c r="B429">
-        <v>30.1429</v>
+        <v>30.142900000000001</v>
       </c>
       <c r="C429">
         <v>124.0453</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
-        <v>44606.3041087963</v>
+        <v>44606.304108796299</v>
       </c>
       <c r="B430">
-        <v>29.4402</v>
+        <v>29.440200000000001</v>
       </c>
       <c r="C430">
         <v>124.8086</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
-        <v>44606.30428240741</v>
+        <v>44606.304282407407</v>
       </c>
       <c r="B431">
-        <v>28.7325</v>
+        <v>28.732500000000002</v>
       </c>
       <c r="C431">
         <v>125.5604</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
-        <v>44606.30446759259</v>
+        <v>44606.304467592592</v>
       </c>
       <c r="B432">
         <v>28.02</v>
       </c>
       <c r="C432">
-        <v>126.3011</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>126.30110000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>44606.3046412037</v>
       </c>
       <c r="B433">
-        <v>27.3029</v>
+        <v>27.302900000000001</v>
       </c>
       <c r="C433">
         <v>127.0311</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
-        <v>44606.30482638889</v>
+        <v>44606.304826388892</v>
       </c>
       <c r="B434">
         <v>26.558</v>
@@ -5164,42 +5216,42 @@
         <v>127.7739</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
-        <v>44606.30501157408</v>
+        <v>44606.305011574077</v>
       </c>
       <c r="B435">
-        <v>25.8321</v>
+        <v>25.832100000000001</v>
       </c>
       <c r="C435">
-        <v>128.4835</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
+        <v>128.48349999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
-        <v>44606.30518518519</v>
+        <v>44606.305185185192</v>
       </c>
       <c r="B436">
         <v>25.102</v>
       </c>
       <c r="C436">
-        <v>129.1836</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>129.18360000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>44606.30537037037</v>
       </c>
       <c r="B437">
-        <v>24.3682</v>
+        <v>24.368200000000002</v>
       </c>
       <c r="C437">
-        <v>129.8746</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
+        <v>129.87459999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
-        <v>44606.30555555555</v>
+        <v>44606.305555555547</v>
       </c>
       <c r="B438">
         <v>23.6068</v>
@@ -5208,53 +5260,53 @@
         <v>130.5787</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>44606.30572916667</v>
       </c>
       <c r="B439">
-        <v>22.8654</v>
+        <v>22.865400000000001</v>
       </c>
       <c r="C439">
-        <v>131.2524</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>131.25239999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
-        <v>44606.30591435185</v>
+        <v>44606.305914351848</v>
       </c>
       <c r="B440">
-        <v>22.1209</v>
+        <v>22.120899999999999</v>
       </c>
       <c r="C440">
         <v>131.9177</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>44606.30609953704</v>
       </c>
       <c r="B441">
-        <v>21.3732</v>
+        <v>21.373200000000001</v>
       </c>
       <c r="C441">
         <v>132.5754</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
-        <v>44606.30628472222</v>
+        <v>44606.306284722217</v>
       </c>
       <c r="B442">
-        <v>20.5982</v>
+        <v>20.598199999999999</v>
       </c>
       <c r="C442">
         <v>133.2466</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
-        <v>44606.30645833333</v>
+        <v>44606.306458333333</v>
       </c>
       <c r="B443">
         <v>19.8443</v>
@@ -5263,51 +5315,51 @@
         <v>133.8897</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
-        <v>44606.30664351852</v>
+        <v>44606.306643518517</v>
       </c>
       <c r="B444">
-        <v>19.0878</v>
+        <v>19.087800000000001</v>
       </c>
       <c r="C444">
-        <v>134.526</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>134.52600000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
-        <v>44606.30681712963</v>
+        <v>44606.306817129633</v>
       </c>
       <c r="B445">
-        <v>18.3287</v>
+        <v>18.328700000000001</v>
       </c>
       <c r="C445">
         <v>135.1559</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
-        <v>44606.30700231482</v>
+        <v>44606.307002314818</v>
       </c>
       <c r="B446">
         <v>17.5671</v>
       </c>
       <c r="C446">
-        <v>135.7797</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>135.77969999999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
-        <v>44606.3071875</v>
+        <v>44606.307187500002</v>
       </c>
       <c r="B447">
-        <v>16.7785</v>
+        <v>16.778500000000001</v>
       </c>
       <c r="C447">
-        <v>136.4174</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
+        <v>136.41739999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>44606.30736111111</v>
       </c>
@@ -5315,43 +5367,43 @@
         <v>16.0123</v>
       </c>
       <c r="C448">
-        <v>137.0297</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
+        <v>137.02969999999999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
-        <v>44606.3075462963</v>
+        <v>44606.307546296302</v>
       </c>
       <c r="B449">
         <v>15.244</v>
       </c>
       <c r="C449">
-        <v>137.6367</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
+        <v>137.63669999999999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
-        <v>44606.30771990741</v>
+        <v>44606.307719907411</v>
       </c>
       <c r="B450">
-        <v>14.4738</v>
+        <v>14.473800000000001</v>
       </c>
       <c r="C450">
         <v>138.2388</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
-        <v>44606.3079050926</v>
+        <v>44606.307905092603</v>
       </c>
       <c r="B451">
         <v>13.7018</v>
       </c>
       <c r="C451">
-        <v>138.8362</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
+        <v>138.83619999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>44606.30809027778</v>
       </c>
@@ -5359,34 +5411,34 @@
         <v>12.903</v>
       </c>
       <c r="C452">
-        <v>139.4483</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
+        <v>139.44829999999999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
-        <v>44606.30826388889</v>
+        <v>44606.308263888888</v>
       </c>
       <c r="B453">
-        <v>12.1276</v>
+        <v>12.127599999999999</v>
       </c>
       <c r="C453">
-        <v>140.0372</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
+        <v>140.03720000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
-        <v>44606.30844907407</v>
+        <v>44606.308449074073</v>
       </c>
       <c r="B454">
         <v>11.3506</v>
       </c>
       <c r="C454">
-        <v>140.6222</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
+        <v>140.62219999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
-        <v>44606.30862268519</v>
+        <v>44606.308622685188</v>
       </c>
       <c r="B455">
         <v>10.5722</v>
@@ -5395,81 +5447,81 @@
         <v>141.2037</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
-        <v>44606.30880787037</v>
+        <v>44606.308807870373</v>
       </c>
       <c r="B456">
-        <v>9.767300000000001</v>
+        <v>9.7673000000000005</v>
       </c>
       <c r="C456">
         <v>141.8005</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
-        <v>44606.30899305556</v>
+        <v>44606.308993055558</v>
       </c>
       <c r="B457">
-        <v>8.9864</v>
+        <v>8.9863999999999997</v>
       </c>
       <c r="C457">
-        <v>142.3756</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
+        <v>142.37559999999999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
-        <v>44606.30916666667</v>
+        <v>44606.309166666673</v>
       </c>
       <c r="B458">
-        <v>8.2043</v>
+        <v>8.2042999999999999</v>
       </c>
       <c r="C458">
         <v>142.9479</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
-        <v>44606.30935185185</v>
+        <v>44606.309351851851</v>
       </c>
       <c r="B459">
-        <v>7.4214</v>
+        <v>7.4214000000000002</v>
       </c>
       <c r="C459">
-        <v>143.5177</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
+        <v>143.51769999999999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
-        <v>44606.30953703704</v>
+        <v>44606.309537037043</v>
       </c>
       <c r="B460">
-        <v>6.6123</v>
+        <v>6.6123000000000003</v>
       </c>
       <c r="C460">
-        <v>144.1034</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
+        <v>144.10339999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>44606.30972222222</v>
       </c>
       <c r="B461">
-        <v>5.8278</v>
+        <v>5.8277999999999999</v>
       </c>
       <c r="C461">
         <v>144.6687</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
-        <v>44606.30989583334</v>
+        <v>44606.309895833343</v>
       </c>
       <c r="B462">
-        <v>5.0426</v>
+        <v>5.0426000000000002</v>
       </c>
       <c r="C462">
-        <v>145.2322</v>
+        <v>145.23220000000001</v>
       </c>
     </row>
   </sheetData>
